--- a/Face-name raw data.xlsx
+++ b/Face-name raw data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26312"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3611A960-2721-4647-9D6C-F2888009BDB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="127" documentId="13_ncr:1_{3611A960-2721-4647-9D6C-F2888009BDB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA9A2B00-031F-49DA-8B6A-7801EE035541}"/>
   <bookViews>
-    <workbookView xWindow="7880" yWindow="760" windowWidth="26640" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7880" yWindow="760" windowWidth="26640" windowHeight="15860" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SPSS Data" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="109">
   <si>
     <t>Participant Demographics</t>
   </si>
@@ -76,175 +76,205 @@
     <t>Native Language</t>
   </si>
   <si>
-    <t>d' Faces</t>
+    <t>d' faces</t>
   </si>
   <si>
-    <t>Lure d' Faces Same Person</t>
+    <t>lure d' faces same person</t>
   </si>
   <si>
-    <t>Lure d' Faces Similar Person</t>
+    <t>lure d' faces similar person</t>
   </si>
   <si>
-    <t>d' NegFaces</t>
+    <t>d' negative faces</t>
   </si>
   <si>
-    <t>d' NeuFaces</t>
+    <t>d' neutral faces</t>
   </si>
   <si>
-    <t>d' PosFaces</t>
+    <t>d' positive faces</t>
   </si>
   <si>
-    <t xml:space="preserve">d' Positivity Effect </t>
+    <t xml:space="preserve">d' positivity effect </t>
   </si>
   <si>
-    <t>d' Negativity Effect</t>
+    <t>d' negativity effect</t>
   </si>
   <si>
-    <t>Lure d' NegFaces Same Person</t>
+    <t>lure d' negative faces same person</t>
   </si>
   <si>
-    <t>Lure d' NegFaces Similar Person</t>
+    <t>lure d' negative faces similar person</t>
   </si>
   <si>
-    <t>Lure d' NeuFaces Same Person</t>
+    <t>lure d' neutral faces same person</t>
   </si>
   <si>
-    <t>Lure d' NeuFaces Similar Person</t>
+    <t>lure d' neutral faces similar person</t>
   </si>
   <si>
-    <t>Lure d' PosFaces Same Person</t>
+    <t>lure d' positive faces same person</t>
   </si>
   <si>
-    <t>Lure d' PosFaces Similar Person</t>
+    <t>lure d' positive faces similar person</t>
   </si>
   <si>
-    <t>Positivity Effect Similar Lure D'</t>
+    <t>lure d' positivity effect similar person</t>
   </si>
   <si>
-    <t>Negativity Effect Similar Lure D'</t>
+    <t>lure d' negativity effect similar person</t>
   </si>
   <si>
-    <t>Positivity Effect Same Lure D'</t>
+    <t>lure d' positivity effect same person</t>
   </si>
   <si>
-    <t>Negativity Effect Same Lure D'</t>
+    <t>lure d' negativity effect same person</t>
   </si>
   <si>
     <t>d' male</t>
   </si>
   <si>
-    <t>d female</t>
+    <t>d' female</t>
   </si>
   <si>
     <t>d white</t>
   </si>
   <si>
-    <t>lure d male sameperson</t>
+    <t>d' other race</t>
   </si>
   <si>
-    <t>lure d female same person</t>
+    <t>lure d' male same person</t>
   </si>
   <si>
-    <t>lure d male similar person</t>
+    <t>lure d' female same person</t>
   </si>
   <si>
-    <t>lure d female similar person</t>
+    <t>lure d' male similar person</t>
   </si>
   <si>
-    <t>lure d white same person</t>
+    <t>lure d' female similar person</t>
   </si>
   <si>
-    <t>lure d white similar person</t>
+    <t>lure d' white same person</t>
   </si>
   <si>
-    <t>d' Name</t>
+    <t>lure d' white similar person</t>
   </si>
   <si>
-    <t>Lure d' Name</t>
+    <t>lure d' other race same person</t>
   </si>
   <si>
-    <t>d' TargetFaces</t>
+    <t>lure d' other race similar person</t>
   </si>
   <si>
-    <t>d' SamePersonFaces</t>
+    <t>d' name</t>
   </si>
   <si>
-    <t>d' SimilarPersonFaces</t>
+    <t>lure d' name</t>
   </si>
   <si>
-    <t>Lure d' Target</t>
+    <t>d' target faces</t>
   </si>
   <si>
-    <t>Lure d' Same Person</t>
+    <t>d' same person faces</t>
   </si>
   <si>
-    <t>Lure d' Similar Person</t>
+    <t>d' similar person faces</t>
   </si>
   <si>
-    <t>d male</t>
+    <t>lure d' target</t>
   </si>
   <si>
-    <t>d target male</t>
+    <t>lure d' same person</t>
   </si>
   <si>
-    <t>d target female</t>
+    <t>lure d' similar person</t>
   </si>
   <si>
-    <t>d same person male</t>
+    <t>d' white</t>
   </si>
   <si>
-    <t>d same person female</t>
+    <t>d' target male</t>
   </si>
   <si>
-    <t>d similar person male</t>
+    <t>d' target female</t>
   </si>
   <si>
-    <t>d similar person female</t>
+    <t>d' same person male</t>
   </si>
   <si>
-    <t>d target white</t>
+    <t>d' same person female</t>
   </si>
   <si>
-    <t>d same person white</t>
+    <t>d' similar person male</t>
   </si>
   <si>
-    <t>d similar person white</t>
+    <t>d' similar person female</t>
   </si>
   <si>
-    <t>d lure male</t>
+    <t>d' target white</t>
   </si>
   <si>
-    <t>d lure female</t>
+    <t>d' target other race</t>
   </si>
   <si>
-    <t>d lure white</t>
+    <t>d' same person white</t>
   </si>
   <si>
-    <t>d lure target male</t>
+    <t>d' same person other race</t>
   </si>
   <si>
-    <t>d lure target female</t>
+    <t>d' similar person white</t>
   </si>
   <si>
-    <t>d lure same person male</t>
+    <t>d' similar person other race</t>
   </si>
   <si>
-    <t>d lure same person female</t>
+    <t>lure d' male</t>
   </si>
   <si>
-    <t>d lure similar person male</t>
+    <t>lure d' female</t>
   </si>
   <si>
-    <t>d lure similar person female</t>
+    <t>lure d' white</t>
   </si>
   <si>
-    <t>d lure target white</t>
+    <t>lure d' other race</t>
   </si>
   <si>
-    <t>d lure same person white</t>
+    <t>lure d' target male</t>
   </si>
   <si>
-    <t>d lure similar person white</t>
+    <t>lure d' target female</t>
+  </si>
+  <si>
+    <t>lure d' same person male</t>
+  </si>
+  <si>
+    <t>lure d' same person female</t>
+  </si>
+  <si>
+    <t>lure d' similar person male</t>
+  </si>
+  <si>
+    <t>lure d' similar person female</t>
+  </si>
+  <si>
+    <t>lure d' target white</t>
+  </si>
+  <si>
+    <t>lure d' target other race</t>
+  </si>
+  <si>
+    <t>lure d' same person white</t>
+  </si>
+  <si>
+    <t>lure d' same person other race</t>
+  </si>
+  <si>
+    <t>lure d' similar person white</t>
+  </si>
+  <si>
+    <t>lure d' similar person other race</t>
   </si>
   <si>
     <t>Valence Negative</t>
@@ -274,7 +304,7 @@
     <t>Similar Person Similarity Rating</t>
   </si>
   <si>
-    <t>Target-Foil Similarity Ratings</t>
+    <t>Target-Foil Similarity Rating</t>
   </si>
   <si>
     <t>CMFQ</t>
@@ -295,6 +325,12 @@
     <t>LEQ: Coffee Score</t>
   </si>
   <si>
+    <t>SCS: Other QL</t>
+  </si>
+  <si>
+    <t>SCS: Other QN</t>
+  </si>
+  <si>
     <t>SCS: Yt QL</t>
   </si>
   <si>
@@ -313,74 +349,20 @@
     <t>0 = Male, 1 = Female</t>
   </si>
   <si>
+    <t>0 = White, 1 = Other race</t>
+  </si>
+  <si>
     <t>0 = Non-Hispanic, 1 = Hispanic</t>
   </si>
   <si>
     <t>0 = English, 1 = Non-English</t>
-  </si>
-  <si>
-    <t>Hit</t>
-  </si>
-  <si>
-    <t>"Target" / Target</t>
-  </si>
-  <si>
-    <t>FA</t>
-  </si>
-  <si>
-    <t>"Target" / Foil</t>
-  </si>
-  <si>
-    <t>Lure FA</t>
-  </si>
-  <si>
-    <t>"Target" / Lure</t>
-  </si>
-  <si>
-    <t>d otherrace</t>
-  </si>
-  <si>
-    <t>lure d otherrace same person</t>
-  </si>
-  <si>
-    <t>lure d otherrace similar person</t>
-  </si>
-  <si>
-    <t>d target otherrace</t>
-  </si>
-  <si>
-    <t>d same person otherrace</t>
-  </si>
-  <si>
-    <t>d similar person otherrace</t>
-  </si>
-  <si>
-    <t>d lure otherrace</t>
-  </si>
-  <si>
-    <t>d lure target otherrace</t>
-  </si>
-  <si>
-    <t>d lure same person otherrace</t>
-  </si>
-  <si>
-    <t>d lure similar person otherrace</t>
-  </si>
-  <si>
-    <t>0 = White, 1 = Other race</t>
-  </si>
-  <si>
-    <t>SCS: Other QL</t>
-  </si>
-  <si>
-    <t>SCS: Other QN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -460,7 +442,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -509,6 +491,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -540,21 +528,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -579,6 +555,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -600,8 +581,21 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -952,439 +946,439 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CT48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H4" workbookViewId="0">
-      <selection activeCell="M45" sqref="M45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="27" max="43" width="9.1640625"/>
+    <col min="27" max="43" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="33" t="s">
+    <row r="1" spans="1:98" s="7" customFormat="1">
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="32" t="s">
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="32"/>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="35" t="s">
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="29"/>
+      <c r="AH1" s="29"/>
+      <c r="AI1" s="29"/>
+      <c r="AJ1" s="29"/>
+      <c r="AK1" s="29"/>
+      <c r="AL1" s="29"/>
+      <c r="AM1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="AN1" s="35"/>
-      <c r="AO1" s="35"/>
-      <c r="AP1" s="35"/>
-      <c r="AQ1" s="35"/>
-      <c r="AR1" s="35"/>
-      <c r="AS1" s="35"/>
-      <c r="AT1" s="35"/>
-      <c r="AU1" s="36" t="s">
+      <c r="AN1" s="32"/>
+      <c r="AO1" s="32"/>
+      <c r="AP1" s="32"/>
+      <c r="AQ1" s="32"/>
+      <c r="AR1" s="32"/>
+      <c r="AS1" s="32"/>
+      <c r="AT1" s="32"/>
+      <c r="AU1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="AV1" s="36"/>
-      <c r="AW1" s="36"/>
-      <c r="AX1" s="36"/>
-      <c r="AY1" s="36"/>
-      <c r="AZ1" s="36"/>
-      <c r="BA1" s="36"/>
-      <c r="BB1" s="36"/>
-      <c r="BC1" s="36"/>
-      <c r="BD1" s="36"/>
-      <c r="BE1" s="36"/>
-      <c r="BF1" s="36"/>
-      <c r="BG1" s="36"/>
-      <c r="BH1" s="36"/>
-      <c r="BI1" s="36"/>
-      <c r="BJ1" s="36"/>
-      <c r="BK1" s="36"/>
-      <c r="BL1" s="36"/>
-      <c r="BM1" s="36"/>
-      <c r="BN1" s="36"/>
-      <c r="BO1" s="36"/>
-      <c r="BP1" s="36"/>
-      <c r="BQ1" s="36"/>
-      <c r="BR1" s="36"/>
-      <c r="BS1" s="36"/>
-      <c r="BT1" s="36"/>
-      <c r="BU1" s="36"/>
-      <c r="BV1" s="36"/>
-      <c r="BW1" s="36"/>
-      <c r="BX1" s="36"/>
-      <c r="BY1" s="36"/>
-      <c r="BZ1" s="36"/>
-      <c r="CA1" s="30" t="s">
+      <c r="AV1" s="33"/>
+      <c r="AW1" s="33"/>
+      <c r="AX1" s="33"/>
+      <c r="AY1" s="33"/>
+      <c r="AZ1" s="33"/>
+      <c r="BA1" s="33"/>
+      <c r="BB1" s="33"/>
+      <c r="BC1" s="33"/>
+      <c r="BD1" s="33"/>
+      <c r="BE1" s="33"/>
+      <c r="BF1" s="33"/>
+      <c r="BG1" s="33"/>
+      <c r="BH1" s="33"/>
+      <c r="BI1" s="33"/>
+      <c r="BJ1" s="33"/>
+      <c r="BK1" s="33"/>
+      <c r="BL1" s="33"/>
+      <c r="BM1" s="33"/>
+      <c r="BN1" s="33"/>
+      <c r="BO1" s="33"/>
+      <c r="BP1" s="33"/>
+      <c r="BQ1" s="33"/>
+      <c r="BR1" s="33"/>
+      <c r="BS1" s="33"/>
+      <c r="BT1" s="33"/>
+      <c r="BU1" s="33"/>
+      <c r="BV1" s="33"/>
+      <c r="BW1" s="33"/>
+      <c r="BX1" s="33"/>
+      <c r="BY1" s="33"/>
+      <c r="BZ1" s="33"/>
+      <c r="CA1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="CB1" s="30"/>
-      <c r="CC1" s="30"/>
-      <c r="CD1" s="30"/>
-      <c r="CE1" s="30"/>
-      <c r="CF1" s="30"/>
-      <c r="CG1" s="30"/>
-      <c r="CH1" s="30"/>
-      <c r="CI1" s="30"/>
-      <c r="CJ1" s="30"/>
-      <c r="CK1" s="31" t="s">
+      <c r="CB1" s="27"/>
+      <c r="CC1" s="27"/>
+      <c r="CD1" s="27"/>
+      <c r="CE1" s="27"/>
+      <c r="CF1" s="27"/>
+      <c r="CG1" s="27"/>
+      <c r="CH1" s="27"/>
+      <c r="CI1" s="27"/>
+      <c r="CJ1" s="27"/>
+      <c r="CK1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="CL1" s="31"/>
-      <c r="CM1" s="31"/>
-      <c r="CN1" s="31"/>
-      <c r="CO1" s="31"/>
-      <c r="CP1" s="31"/>
-      <c r="CQ1" s="31"/>
-      <c r="CR1" s="31"/>
-      <c r="CS1" s="31"/>
-      <c r="CT1" s="31"/>
+      <c r="CL1" s="28"/>
+      <c r="CM1" s="28"/>
+      <c r="CN1" s="28"/>
+      <c r="CO1" s="28"/>
+      <c r="CP1" s="28"/>
+      <c r="CQ1" s="28"/>
+      <c r="CR1" s="28"/>
+      <c r="CS1" s="28"/>
+      <c r="CT1" s="28"/>
     </row>
-    <row r="2" spans="1:98" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:98" s="7" customFormat="1" ht="15.75">
+      <c r="A2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="37" t="s">
+      <c r="O2" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="37" t="s">
+      <c r="P2" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="U2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="V2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="W2" s="37" t="s">
+      <c r="W2" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="X2" s="37" t="s">
+      <c r="X2" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="Y2" s="37" t="s">
+      <c r="Y2" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="Z2" s="37" t="s">
+      <c r="Z2" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="AA2" s="9" t="s">
+      <c r="AA2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AB2" s="9" t="s">
+      <c r="AB2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AC2" s="9" t="s">
+      <c r="AC2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AD2" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE2" s="9" t="s">
+      <c r="AD2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AF2" s="9" t="s">
+      <c r="AE2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="AG2" s="9" t="s">
+      <c r="AF2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AH2" s="9" t="s">
+      <c r="AG2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AI2" s="9" t="s">
+      <c r="AH2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AJ2" s="9" t="s">
+      <c r="AI2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AK2" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="AL2" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM2" s="8" t="s">
+      <c r="AJ2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AN2" s="8" t="s">
+      <c r="AK2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AO2" s="8" t="s">
+      <c r="AL2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AP2" s="8" t="s">
+      <c r="AM2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="AQ2" s="8" t="s">
+      <c r="AN2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="AR2" s="8" t="s">
+      <c r="AO2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AS2" s="8" t="s">
+      <c r="AP2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AT2" s="8" t="s">
+      <c r="AQ2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AU2" s="9" t="s">
+      <c r="AR2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AV2" s="9" t="s">
+      <c r="AS2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AU2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AW2" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="AX2" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="AY2" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AZ2" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="BA2" s="9" t="s">
+      <c r="AW2" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="BB2" s="9" t="s">
+      <c r="AX2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY2" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="BC2" s="9" t="s">
+      <c r="AZ2" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="BD2" s="9" t="s">
+      <c r="BA2" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="BE2" s="9" t="s">
+      <c r="BB2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="BF2" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="BG2" s="9" t="s">
+      <c r="BC2" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="BH2" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="BI2" s="9" t="s">
+      <c r="BD2" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="BJ2" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="BK2" s="9" t="s">
+      <c r="BE2" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="BL2" s="9" t="s">
+      <c r="BF2" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="BM2" s="9" t="s">
+      <c r="BG2" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="BN2" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="BO2" s="9" t="s">
+      <c r="BH2" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="BP2" s="9" t="s">
+      <c r="BI2" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="BQ2" s="9" t="s">
+      <c r="BJ2" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="BR2" s="9" t="s">
+      <c r="BK2" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="BS2" s="9" t="s">
+      <c r="BL2" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="BT2" s="9" t="s">
+      <c r="BM2" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="BU2" s="9" t="s">
+      <c r="BN2" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="BV2" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="BW2" s="9" t="s">
+      <c r="BO2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="BX2" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="BY2" s="9" t="s">
+      <c r="BP2" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="BZ2" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="CA2" s="8" t="s">
+      <c r="BQ2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="CB2" s="8" t="s">
+      <c r="BR2" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="CC2" s="8" t="s">
+      <c r="BS2" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="CD2" s="8" t="s">
+      <c r="BT2" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="CE2" s="8" t="s">
+      <c r="BU2" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="CF2" s="8" t="s">
+      <c r="BV2" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="CG2" s="8" t="s">
+      <c r="BW2" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="CH2" s="8" t="s">
+      <c r="BX2" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="CI2" s="8" t="s">
+      <c r="BY2" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="CJ2" s="8" t="s">
+      <c r="BZ2" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="CK2" s="10" t="s">
+      <c r="CA2" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="CL2" s="10" t="s">
+      <c r="CB2" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="CM2" s="10" t="s">
+      <c r="CC2" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="CN2" s="11" t="s">
+      <c r="CD2" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="CO2" s="12" t="s">
+      <c r="CE2" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="CP2" s="12" t="s">
+      <c r="CF2" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="CQ2" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="CR2" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="CS2" s="13" t="s">
+      <c r="CG2" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="CT2" s="14" t="s">
+      <c r="CH2" s="7" t="s">
         <v>89</v>
       </c>
+      <c r="CI2" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="CJ2" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="CK2" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="CL2" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="CM2" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="CN2" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="CO2" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="CP2" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="CQ2" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="CR2" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="CS2" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="CT2" s="36" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="3" spans="1:98" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
+    <row r="3" spans="1:98" ht="15.95">
+      <c r="A3" s="26">
         <v>100</v>
       </c>
-      <c r="B3" s="7">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7">
+      <c r="B3" s="26">
+        <v>0</v>
+      </c>
+      <c r="C3" s="26">
         <v>21</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="26">
         <v>1</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="26">
         <v>12</v>
       </c>
       <c r="F3" s="1">
@@ -1393,7 +1387,7 @@
       <c r="G3" s="1">
         <v>0</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="26">
         <v>0</v>
       </c>
       <c r="I3">
@@ -1654,39 +1648,39 @@
       <c r="CN3" s="4">
         <v>3</v>
       </c>
-      <c r="CO3" s="7">
+      <c r="CO3" s="38">
         <v>25</v>
       </c>
-      <c r="CP3" s="7">
+      <c r="CP3" s="38">
         <v>1</v>
       </c>
-      <c r="CQ3" s="7">
+      <c r="CQ3" s="26">
         <v>2.875</v>
       </c>
-      <c r="CR3" s="7">
+      <c r="CR3" s="26">
         <v>2.9</v>
       </c>
       <c r="CS3" s="4">
         <v>4.7</v>
       </c>
-      <c r="CT3" s="7">
+      <c r="CT3" s="26">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:98" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
+    <row r="4" spans="1:98" ht="15.95">
+      <c r="A4" s="26">
         <v>101</v>
       </c>
-      <c r="B4" s="7">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7">
+      <c r="B4" s="26">
+        <v>0</v>
+      </c>
+      <c r="C4" s="26">
         <v>26</v>
       </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7">
+      <c r="D4" s="26">
+        <v>0</v>
+      </c>
+      <c r="E4" s="26">
         <v>18</v>
       </c>
       <c r="F4" s="1">
@@ -1695,7 +1689,7 @@
       <c r="G4" s="1">
         <v>0</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="26">
         <v>0</v>
       </c>
       <c r="I4">
@@ -1956,39 +1950,39 @@
       <c r="CN4" s="4">
         <v>13</v>
       </c>
-      <c r="CO4" s="7">
+      <c r="CO4" s="38">
         <v>19</v>
       </c>
-      <c r="CP4" s="7">
-        <v>0</v>
-      </c>
-      <c r="CQ4" s="7">
+      <c r="CP4" s="38">
+        <v>0</v>
+      </c>
+      <c r="CQ4" s="26">
         <v>2.3000000000000003</v>
       </c>
-      <c r="CR4" s="7">
+      <c r="CR4" s="26">
         <v>2.6</v>
       </c>
       <c r="CS4" s="4">
         <v>4.9000000000000004</v>
       </c>
-      <c r="CT4" s="7">
+      <c r="CT4" s="26">
         <v>4.8</v>
       </c>
     </row>
-    <row r="5" spans="1:98" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
+    <row r="5" spans="1:98" ht="15.95">
+      <c r="A5" s="26">
         <v>102</v>
       </c>
-      <c r="B5" s="7">
-        <v>0</v>
-      </c>
-      <c r="C5" s="7">
+      <c r="B5" s="26">
+        <v>0</v>
+      </c>
+      <c r="C5" s="26">
         <v>31</v>
       </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7">
+      <c r="D5" s="26">
+        <v>0</v>
+      </c>
+      <c r="E5" s="26">
         <v>12</v>
       </c>
       <c r="F5" s="1">
@@ -1997,7 +1991,7 @@
       <c r="G5" s="1">
         <v>0</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="26">
         <v>0</v>
       </c>
       <c r="I5">
@@ -2258,48 +2252,48 @@
       <c r="CN5" s="4">
         <v>13</v>
       </c>
-      <c r="CO5" s="7">
+      <c r="CO5" s="38">
         <v>23</v>
       </c>
-      <c r="CP5" s="7">
-        <v>0</v>
-      </c>
-      <c r="CQ5" s="7">
+      <c r="CP5" s="38">
+        <v>0</v>
+      </c>
+      <c r="CQ5" s="26">
         <v>2.1749999999999998</v>
       </c>
-      <c r="CR5" s="7">
+      <c r="CR5" s="26">
         <v>3.0999999999999996</v>
       </c>
       <c r="CS5" s="4">
         <v>4.9000000000000004</v>
       </c>
-      <c r="CT5" s="7">
+      <c r="CT5" s="26">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:98" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
+    <row r="6" spans="1:98" ht="15.95">
+      <c r="A6" s="26">
         <v>103</v>
       </c>
-      <c r="B6" s="7">
-        <v>0</v>
-      </c>
-      <c r="C6" s="7">
+      <c r="B6" s="26">
+        <v>0</v>
+      </c>
+      <c r="C6" s="26">
         <v>23</v>
       </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="D6" s="26">
+        <v>0</v>
+      </c>
+      <c r="E6" s="26">
         <v>16</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="26">
         <v>1</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="26">
         <v>0</v>
       </c>
       <c r="I6">
@@ -2560,48 +2554,48 @@
       <c r="CN6" s="4">
         <v>0</v>
       </c>
-      <c r="CO6" s="7">
+      <c r="CO6" s="38">
         <v>24</v>
       </c>
-      <c r="CP6" s="7">
-        <v>0</v>
-      </c>
-      <c r="CQ6" s="7">
+      <c r="CP6" s="38">
+        <v>0</v>
+      </c>
+      <c r="CQ6" s="26">
         <v>2.2750000000000004</v>
       </c>
-      <c r="CR6" s="7">
+      <c r="CR6" s="26">
         <v>2.35</v>
       </c>
       <c r="CS6" s="4">
         <v>3.6</v>
       </c>
-      <c r="CT6" s="7">
+      <c r="CT6" s="26">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:98" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
+    <row r="7" spans="1:98" ht="15.95">
+      <c r="A7" s="26">
         <v>104</v>
       </c>
-      <c r="B7" s="7">
-        <v>0</v>
-      </c>
-      <c r="C7" s="7">
+      <c r="B7" s="26">
+        <v>0</v>
+      </c>
+      <c r="C7" s="26">
         <v>20</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="26">
         <v>1</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="26">
         <v>12</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="26">
         <v>1</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="26">
         <v>0</v>
       </c>
       <c r="I7">
@@ -2862,39 +2856,39 @@
       <c r="CN7" s="4">
         <v>4</v>
       </c>
-      <c r="CO7" s="7">
+      <c r="CO7" s="38">
         <v>18</v>
       </c>
-      <c r="CP7" s="7">
-        <v>0</v>
-      </c>
-      <c r="CQ7" s="7">
+      <c r="CP7" s="38">
+        <v>0</v>
+      </c>
+      <c r="CQ7" s="26">
         <v>2.2999999999999998</v>
       </c>
-      <c r="CR7" s="7">
+      <c r="CR7" s="26">
         <v>2.9000000000000004</v>
       </c>
       <c r="CS7" s="4">
         <v>4.5999999999999996</v>
       </c>
-      <c r="CT7" s="7">
+      <c r="CT7" s="26">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:98" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
+    <row r="8" spans="1:98" ht="15.95">
+      <c r="A8" s="26">
         <v>105</v>
       </c>
-      <c r="B8" s="7">
-        <v>0</v>
-      </c>
-      <c r="C8" s="7">
+      <c r="B8" s="26">
+        <v>0</v>
+      </c>
+      <c r="C8" s="26">
         <v>30</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="26">
         <v>1</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="26">
         <v>16</v>
       </c>
       <c r="F8" s="1">
@@ -2903,7 +2897,7 @@
       <c r="G8" s="1">
         <v>0</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="26">
         <v>0</v>
       </c>
       <c r="I8">
@@ -3164,48 +3158,48 @@
       <c r="CN8" s="4">
         <v>19</v>
       </c>
-      <c r="CO8" s="7">
+      <c r="CO8" s="38">
         <v>11</v>
       </c>
-      <c r="CP8" s="7">
+      <c r="CP8" s="38">
         <v>4</v>
       </c>
-      <c r="CQ8" s="7">
+      <c r="CQ8" s="26">
         <v>3.95</v>
       </c>
-      <c r="CR8" s="7">
+      <c r="CR8" s="26">
         <v>2.75</v>
       </c>
       <c r="CS8" s="4">
         <v>1</v>
       </c>
-      <c r="CT8" s="7">
+      <c r="CT8" s="26">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:98" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
+    <row r="9" spans="1:98" ht="15.95">
+      <c r="A9" s="26">
         <v>106</v>
       </c>
-      <c r="B9" s="7">
-        <v>0</v>
-      </c>
-      <c r="C9" s="7">
+      <c r="B9" s="26">
+        <v>0</v>
+      </c>
+      <c r="C9" s="26">
         <v>19</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="26">
         <v>1</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="26">
         <v>12</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="26">
         <v>1</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="26">
         <v>1</v>
       </c>
       <c r="I9">
@@ -3466,39 +3460,39 @@
       <c r="CN9" s="4">
         <v>7</v>
       </c>
-      <c r="CO9" s="7">
+      <c r="CO9" s="38">
         <v>21</v>
       </c>
-      <c r="CP9" s="7">
-        <v>0</v>
-      </c>
-      <c r="CQ9" s="7">
+      <c r="CP9" s="38">
+        <v>0</v>
+      </c>
+      <c r="CQ9" s="26">
         <v>2.9</v>
       </c>
-      <c r="CR9" s="7">
+      <c r="CR9" s="26">
         <v>3.2</v>
       </c>
       <c r="CS9" s="4">
         <v>3.4</v>
       </c>
-      <c r="CT9" s="7">
+      <c r="CT9" s="26">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:98" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
+    <row r="10" spans="1:98" ht="15.95">
+      <c r="A10" s="26">
         <v>107</v>
       </c>
-      <c r="B10" s="7">
-        <v>0</v>
-      </c>
-      <c r="C10" s="7">
+      <c r="B10" s="26">
+        <v>0</v>
+      </c>
+      <c r="C10" s="26">
         <v>23</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
-      <c r="E10" s="7">
+      <c r="D10" s="26">
+        <v>0</v>
+      </c>
+      <c r="E10" s="26">
         <v>16</v>
       </c>
       <c r="F10" s="1">
@@ -3507,7 +3501,7 @@
       <c r="G10" s="1">
         <v>0</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="26">
         <v>0</v>
       </c>
       <c r="I10">
@@ -3768,48 +3762,48 @@
       <c r="CN10" s="4">
         <v>4</v>
       </c>
-      <c r="CO10" s="7">
+      <c r="CO10" s="38">
         <v>16</v>
       </c>
-      <c r="CP10" s="7">
-        <v>0</v>
-      </c>
-      <c r="CQ10" s="7">
+      <c r="CP10" s="38">
+        <v>0</v>
+      </c>
+      <c r="CQ10" s="26">
         <v>3</v>
       </c>
-      <c r="CR10" s="7">
+      <c r="CR10" s="26">
         <v>3.6000000000000005</v>
       </c>
       <c r="CS10" s="4">
         <v>4.9000000000000004</v>
       </c>
-      <c r="CT10" s="7">
+      <c r="CT10" s="26">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:98" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
+    <row r="11" spans="1:98" ht="15.95">
+      <c r="A11" s="26">
         <v>108</v>
       </c>
-      <c r="B11" s="7">
-        <v>0</v>
-      </c>
-      <c r="C11" s="7">
+      <c r="B11" s="26">
+        <v>0</v>
+      </c>
+      <c r="C11" s="26">
         <v>23</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="26">
         <v>1</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="26">
         <v>16</v>
       </c>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
-      <c r="G11" s="7">
+      <c r="F11" s="26">
+        <v>0</v>
+      </c>
+      <c r="G11" s="26">
         <v>1</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="26">
         <v>0</v>
       </c>
       <c r="I11">
@@ -4070,48 +4064,48 @@
       <c r="CN11" s="4">
         <v>3</v>
       </c>
-      <c r="CO11" s="7">
+      <c r="CO11" s="38">
         <v>22</v>
       </c>
-      <c r="CP11" s="7">
-        <v>0</v>
-      </c>
-      <c r="CQ11" s="7">
+      <c r="CP11" s="38">
+        <v>0</v>
+      </c>
+      <c r="CQ11" s="26">
         <v>2.2999999999999998</v>
       </c>
-      <c r="CR11" s="7">
+      <c r="CR11" s="26">
         <v>1.6500000000000001</v>
       </c>
       <c r="CS11" s="4">
         <v>5</v>
       </c>
-      <c r="CT11" s="7">
+      <c r="CT11" s="26">
         <v>4.8</v>
       </c>
     </row>
-    <row r="12" spans="1:98" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
+    <row r="12" spans="1:98" ht="15.95">
+      <c r="A12" s="26">
         <v>109</v>
       </c>
-      <c r="B12" s="7">
-        <v>0</v>
-      </c>
-      <c r="C12" s="7">
+      <c r="B12" s="26">
+        <v>0</v>
+      </c>
+      <c r="C12" s="26">
         <v>20</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="26">
         <v>1</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="26">
         <v>12</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="26">
         <v>1</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="26">
         <v>0</v>
       </c>
       <c r="I12">
@@ -4372,39 +4366,39 @@
       <c r="CN12" s="4">
         <v>18</v>
       </c>
-      <c r="CO12" s="7">
+      <c r="CO12" s="38">
         <v>16</v>
       </c>
-      <c r="CP12" s="7">
-        <v>0</v>
-      </c>
-      <c r="CQ12" s="7">
+      <c r="CP12" s="38">
+        <v>0</v>
+      </c>
+      <c r="CQ12" s="26">
         <v>2.85</v>
       </c>
-      <c r="CR12" s="7">
+      <c r="CR12" s="26">
         <v>3.3</v>
       </c>
       <c r="CS12" s="4">
         <v>3.3</v>
       </c>
-      <c r="CT12" s="7">
+      <c r="CT12" s="26">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:98" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
+    <row r="13" spans="1:98" ht="15.95">
+      <c r="A13" s="26">
         <v>110</v>
       </c>
-      <c r="B13" s="7">
-        <v>0</v>
-      </c>
-      <c r="C13" s="7">
+      <c r="B13" s="26">
+        <v>0</v>
+      </c>
+      <c r="C13" s="26">
         <v>24</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="26">
         <v>1</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="26">
         <v>16</v>
       </c>
       <c r="F13" s="1">
@@ -4413,7 +4407,7 @@
       <c r="G13" s="1">
         <v>0</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="26">
         <v>0</v>
       </c>
       <c r="I13">
@@ -4674,39 +4668,39 @@
       <c r="CN13" s="4">
         <v>12</v>
       </c>
-      <c r="CO13" s="7">
+      <c r="CO13" s="38">
         <v>22</v>
       </c>
-      <c r="CP13" s="7">
+      <c r="CP13" s="38">
         <v>1</v>
       </c>
-      <c r="CQ13" s="7">
+      <c r="CQ13" s="26">
         <v>1.7</v>
       </c>
-      <c r="CR13" s="7">
+      <c r="CR13" s="26">
         <v>3.05</v>
       </c>
       <c r="CS13" s="4">
         <v>4.5999999999999996</v>
       </c>
-      <c r="CT13" s="7">
+      <c r="CT13" s="26">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:98" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
+    <row r="14" spans="1:98" ht="15.95">
+      <c r="A14" s="26">
         <v>111</v>
       </c>
-      <c r="B14" s="7">
-        <v>0</v>
-      </c>
-      <c r="C14" s="7">
+      <c r="B14" s="26">
+        <v>0</v>
+      </c>
+      <c r="C14" s="26">
         <v>30</v>
       </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7">
+      <c r="D14" s="26">
+        <v>0</v>
+      </c>
+      <c r="E14" s="26">
         <v>18</v>
       </c>
       <c r="F14" s="1">
@@ -4715,7 +4709,7 @@
       <c r="G14" s="1">
         <v>0</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="26">
         <v>0</v>
       </c>
       <c r="I14">
@@ -4976,48 +4970,48 @@
       <c r="CN14" s="4">
         <v>14</v>
       </c>
-      <c r="CO14" s="7">
+      <c r="CO14" s="38">
         <v>16</v>
       </c>
-      <c r="CP14" s="7">
+      <c r="CP14" s="38">
         <v>1</v>
       </c>
-      <c r="CQ14" s="7">
+      <c r="CQ14" s="26">
         <v>2.25</v>
       </c>
-      <c r="CR14" s="7">
+      <c r="CR14" s="26">
         <v>2.4</v>
       </c>
       <c r="CS14" s="4">
         <v>4.8</v>
       </c>
-      <c r="CT14" s="7">
+      <c r="CT14" s="26">
         <v>4.2</v>
       </c>
     </row>
-    <row r="15" spans="1:98" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
+    <row r="15" spans="1:98" ht="15.95">
+      <c r="A15" s="26">
         <v>112</v>
       </c>
-      <c r="B15" s="7">
-        <v>0</v>
-      </c>
-      <c r="C15" s="7">
+      <c r="B15" s="26">
+        <v>0</v>
+      </c>
+      <c r="C15" s="26">
         <v>30</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="26">
         <v>1</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="26">
         <v>16</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="26">
         <v>1</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="26">
         <v>1</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="26">
         <v>0</v>
       </c>
       <c r="I15">
@@ -5278,39 +5272,39 @@
       <c r="CN15" s="4">
         <v>9</v>
       </c>
-      <c r="CO15" s="7">
+      <c r="CO15" s="38">
         <v>15</v>
       </c>
-      <c r="CP15" s="7">
+      <c r="CP15" s="38">
         <v>3</v>
       </c>
-      <c r="CQ15" s="7">
+      <c r="CQ15" s="26">
         <v>3.6</v>
       </c>
-      <c r="CR15" s="7">
+      <c r="CR15" s="26">
         <v>4.6499999999999995</v>
       </c>
       <c r="CS15" s="4">
         <v>5</v>
       </c>
-      <c r="CT15" s="7">
+      <c r="CT15" s="26">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:98" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
+    <row r="16" spans="1:98" ht="15.95">
+      <c r="A16" s="26">
         <v>113</v>
       </c>
-      <c r="B16" s="7">
-        <v>0</v>
-      </c>
-      <c r="C16" s="7">
+      <c r="B16" s="26">
+        <v>0</v>
+      </c>
+      <c r="C16" s="26">
         <v>22</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="26">
         <v>1</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="26">
         <v>12</v>
       </c>
       <c r="F16" s="1">
@@ -5319,7 +5313,7 @@
       <c r="G16" s="1">
         <v>0</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="26">
         <v>0</v>
       </c>
       <c r="I16">
@@ -5580,48 +5574,48 @@
       <c r="CN16" s="4">
         <v>6</v>
       </c>
-      <c r="CO16" s="7">
+      <c r="CO16" s="38">
         <v>24</v>
       </c>
-      <c r="CP16" s="7">
+      <c r="CP16" s="38">
         <v>1</v>
       </c>
-      <c r="CQ16" s="7">
+      <c r="CQ16" s="26">
         <v>3.9499999999999997</v>
       </c>
-      <c r="CR16" s="7">
+      <c r="CR16" s="26">
         <v>4.6999999999999993</v>
       </c>
       <c r="CS16" s="4">
         <v>4.9000000000000004</v>
       </c>
-      <c r="CT16" s="7">
+      <c r="CT16" s="26">
         <v>4.8</v>
       </c>
     </row>
-    <row r="17" spans="1:98" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
+    <row r="17" spans="1:98" ht="15.95">
+      <c r="A17" s="26">
         <v>114</v>
       </c>
-      <c r="B17" s="7">
-        <v>0</v>
-      </c>
-      <c r="C17" s="7">
+      <c r="B17" s="26">
+        <v>0</v>
+      </c>
+      <c r="C17" s="26">
         <v>28</v>
       </c>
-      <c r="D17" s="7">
-        <v>0</v>
-      </c>
-      <c r="E17" s="7">
+      <c r="D17" s="26">
+        <v>0</v>
+      </c>
+      <c r="E17" s="26">
         <v>18</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="26">
         <v>1</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="26">
         <v>1</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="26">
         <v>1</v>
       </c>
       <c r="I17">
@@ -5882,48 +5876,48 @@
       <c r="CN17" s="4">
         <v>19</v>
       </c>
-      <c r="CO17" s="7">
+      <c r="CO17" s="38">
         <v>20</v>
       </c>
-      <c r="CP17" s="7">
+      <c r="CP17" s="38">
         <v>3</v>
       </c>
-      <c r="CQ17" s="7">
+      <c r="CQ17" s="26">
         <v>2.3000000000000003</v>
       </c>
-      <c r="CR17" s="7">
+      <c r="CR17" s="26">
         <v>2.6500000000000004</v>
       </c>
       <c r="CS17" s="4">
         <v>4.5999999999999996</v>
       </c>
-      <c r="CT17" s="7">
+      <c r="CT17" s="26">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:98" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
+    <row r="18" spans="1:98" ht="15.95">
+      <c r="A18" s="26">
         <v>115</v>
       </c>
-      <c r="B18" s="7">
-        <v>0</v>
-      </c>
-      <c r="C18" s="7">
+      <c r="B18" s="26">
+        <v>0</v>
+      </c>
+      <c r="C18" s="26">
         <v>20</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="26">
         <v>1</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="26">
         <v>12</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="26">
         <v>1</v>
       </c>
-      <c r="G18" s="7">
-        <v>0</v>
-      </c>
-      <c r="H18" s="7">
+      <c r="G18" s="26">
+        <v>0</v>
+      </c>
+      <c r="H18" s="26">
         <v>1</v>
       </c>
       <c r="I18">
@@ -6184,39 +6178,39 @@
       <c r="CN18" s="4">
         <v>25</v>
       </c>
-      <c r="CO18" s="7">
+      <c r="CO18" s="38">
         <v>15</v>
       </c>
-      <c r="CP18" s="7">
+      <c r="CP18" s="38">
         <v>1</v>
       </c>
-      <c r="CQ18" s="7">
+      <c r="CQ18" s="26">
         <v>2.1999999999999997</v>
       </c>
-      <c r="CR18" s="7">
+      <c r="CR18" s="26">
         <v>2.7</v>
       </c>
       <c r="CS18" s="4">
         <v>2.5</v>
       </c>
-      <c r="CT18" s="7">
+      <c r="CT18" s="26">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:98" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
+    <row r="19" spans="1:98" ht="15.95">
+      <c r="A19" s="26">
         <v>116</v>
       </c>
-      <c r="B19" s="7">
-        <v>0</v>
-      </c>
-      <c r="C19" s="7">
+      <c r="B19" s="26">
+        <v>0</v>
+      </c>
+      <c r="C19" s="26">
         <v>22</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="26">
         <v>1</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="26">
         <v>16</v>
       </c>
       <c r="F19" s="1">
@@ -6225,7 +6219,7 @@
       <c r="G19" s="1">
         <v>0</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="26">
         <v>0</v>
       </c>
       <c r="I19">
@@ -6486,39 +6480,39 @@
       <c r="CN19" s="4">
         <v>17</v>
       </c>
-      <c r="CO19" s="7">
+      <c r="CO19" s="38">
         <v>23</v>
       </c>
-      <c r="CP19" s="7">
+      <c r="CP19" s="38">
         <v>2</v>
       </c>
-      <c r="CQ19" s="7">
+      <c r="CQ19" s="26">
         <v>3.4249999999999998</v>
       </c>
-      <c r="CR19" s="7">
+      <c r="CR19" s="26">
         <v>3.5999999999999996</v>
       </c>
       <c r="CS19" s="4">
         <v>4.8</v>
       </c>
-      <c r="CT19" s="7">
+      <c r="CT19" s="26">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:98" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
+    <row r="20" spans="1:98" ht="15.95">
+      <c r="A20" s="26">
         <v>117</v>
       </c>
-      <c r="B20" s="7">
-        <v>0</v>
-      </c>
-      <c r="C20" s="7">
+      <c r="B20" s="26">
+        <v>0</v>
+      </c>
+      <c r="C20" s="26">
         <v>21</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="26">
         <v>1</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="26">
         <v>12</v>
       </c>
       <c r="F20" s="1">
@@ -6527,7 +6521,7 @@
       <c r="G20" s="1">
         <v>0</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="26">
         <v>1</v>
       </c>
       <c r="I20">
@@ -6788,48 +6782,48 @@
       <c r="CN20" s="4">
         <v>5</v>
       </c>
-      <c r="CO20" s="7">
+      <c r="CO20" s="38">
         <v>15</v>
       </c>
-      <c r="CP20" s="7">
-        <v>0</v>
-      </c>
-      <c r="CQ20" s="7">
+      <c r="CP20" s="38">
+        <v>0</v>
+      </c>
+      <c r="CQ20" s="26">
         <v>2.15</v>
       </c>
-      <c r="CR20" s="7">
+      <c r="CR20" s="26">
         <v>3.55</v>
       </c>
       <c r="CS20" s="4">
         <v>5</v>
       </c>
-      <c r="CT20" s="7">
+      <c r="CT20" s="26">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:98" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
+    <row r="21" spans="1:98" ht="15.95">
+      <c r="A21" s="26">
         <v>118</v>
       </c>
-      <c r="B21" s="7">
-        <v>0</v>
-      </c>
-      <c r="C21" s="7">
+      <c r="B21" s="26">
+        <v>0</v>
+      </c>
+      <c r="C21" s="26">
         <v>21</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="26">
         <v>1</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="26">
         <v>12</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="26">
         <v>1</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="26">
         <v>0</v>
       </c>
       <c r="I21">
@@ -7090,48 +7084,48 @@
       <c r="CN21" s="4">
         <v>10</v>
       </c>
-      <c r="CO21" s="7">
+      <c r="CO21" s="38">
         <v>19</v>
       </c>
-      <c r="CP21" s="7">
-        <v>0</v>
-      </c>
-      <c r="CQ21" s="7">
+      <c r="CP21" s="38">
+        <v>0</v>
+      </c>
+      <c r="CQ21" s="26">
         <v>2</v>
       </c>
-      <c r="CR21" s="7">
+      <c r="CR21" s="26">
         <v>2.2000000000000002</v>
       </c>
       <c r="CS21" s="4">
         <v>1.7</v>
       </c>
-      <c r="CT21" s="7">
+      <c r="CT21" s="26">
         <v>3.4</v>
       </c>
     </row>
-    <row r="22" spans="1:98" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="7">
+    <row r="22" spans="1:98" ht="15.95">
+      <c r="A22" s="26">
         <v>119</v>
       </c>
-      <c r="B22" s="7">
-        <v>0</v>
-      </c>
-      <c r="C22" s="7">
+      <c r="B22" s="26">
+        <v>0</v>
+      </c>
+      <c r="C22" s="26">
         <v>19</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="26">
         <v>1</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="26">
         <v>12</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="26">
         <v>1</v>
       </c>
-      <c r="G22" s="7">
-        <v>0</v>
-      </c>
-      <c r="H22" s="7">
+      <c r="G22" s="26">
+        <v>0</v>
+      </c>
+      <c r="H22" s="26">
         <v>1</v>
       </c>
       <c r="I22">
@@ -7392,48 +7386,48 @@
       <c r="CN22" s="4">
         <v>15</v>
       </c>
-      <c r="CO22" s="7">
+      <c r="CO22" s="38">
         <v>16</v>
       </c>
-      <c r="CP22" s="7">
-        <v>0</v>
-      </c>
-      <c r="CQ22" s="7">
+      <c r="CP22" s="38">
+        <v>0</v>
+      </c>
+      <c r="CQ22" s="26">
         <v>2.6750000000000003</v>
       </c>
-      <c r="CR22" s="7">
+      <c r="CR22" s="26">
         <v>3.85</v>
       </c>
       <c r="CS22" s="4">
         <v>2.8</v>
       </c>
-      <c r="CT22" s="7">
+      <c r="CT22" s="26">
         <v>3.6</v>
       </c>
     </row>
-    <row r="23" spans="1:98" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="7">
+    <row r="23" spans="1:98" ht="15.95">
+      <c r="A23" s="26">
         <v>120</v>
       </c>
-      <c r="B23" s="7">
-        <v>0</v>
-      </c>
-      <c r="C23" s="7">
+      <c r="B23" s="26">
+        <v>0</v>
+      </c>
+      <c r="C23" s="26">
         <v>20</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="26">
         <v>1</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="26">
         <v>12</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="26">
         <v>1</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="26">
         <v>0</v>
       </c>
       <c r="I23">
@@ -7694,48 +7688,48 @@
       <c r="CN23" s="4">
         <v>9</v>
       </c>
-      <c r="CO23" s="7">
+      <c r="CO23" s="38">
         <v>13</v>
       </c>
-      <c r="CP23" s="7">
+      <c r="CP23" s="38">
         <v>3</v>
       </c>
-      <c r="CQ23" s="7">
+      <c r="CQ23" s="26">
         <v>1.9000000000000001</v>
       </c>
-      <c r="CR23" s="7">
+      <c r="CR23" s="26">
         <v>1.9</v>
       </c>
       <c r="CS23" s="4">
         <v>4.5999999999999996</v>
       </c>
-      <c r="CT23" s="7">
+      <c r="CT23" s="26">
         <v>4.8</v>
       </c>
     </row>
-    <row r="24" spans="1:98" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="7">
+    <row r="24" spans="1:98" ht="15.95">
+      <c r="A24" s="26">
         <v>121</v>
       </c>
-      <c r="B24" s="7">
-        <v>0</v>
-      </c>
-      <c r="C24" s="7">
+      <c r="B24" s="26">
+        <v>0</v>
+      </c>
+      <c r="C24" s="26">
         <v>22</v>
       </c>
-      <c r="D24" s="7">
-        <v>0</v>
-      </c>
-      <c r="E24" s="7">
+      <c r="D24" s="26">
+        <v>0</v>
+      </c>
+      <c r="E24" s="26">
         <v>16</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="26">
         <v>1</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="26">
         <v>0</v>
       </c>
       <c r="I24">
@@ -7996,48 +7990,48 @@
       <c r="CN24" s="4">
         <v>16</v>
       </c>
-      <c r="CO24" s="7">
+      <c r="CO24" s="38">
         <v>13</v>
       </c>
-      <c r="CP24" s="7">
+      <c r="CP24" s="38">
         <v>3</v>
       </c>
-      <c r="CQ24" s="7">
+      <c r="CQ24" s="26">
         <v>3.95</v>
       </c>
-      <c r="CR24" s="7">
+      <c r="CR24" s="26">
         <v>3.0000000000000004</v>
       </c>
       <c r="CS24" s="4">
         <v>4.0999999999999996</v>
       </c>
-      <c r="CT24" s="7">
+      <c r="CT24" s="26">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:98" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="7">
+    <row r="25" spans="1:98" ht="15.95">
+      <c r="A25" s="26">
         <v>122</v>
       </c>
-      <c r="B25" s="7">
-        <v>0</v>
-      </c>
-      <c r="C25" s="7">
+      <c r="B25" s="26">
+        <v>0</v>
+      </c>
+      <c r="C25" s="26">
         <v>19</v>
       </c>
-      <c r="D25" s="7">
-        <v>0</v>
-      </c>
-      <c r="E25" s="7">
+      <c r="D25" s="26">
+        <v>0</v>
+      </c>
+      <c r="E25" s="26">
         <v>12</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="26">
         <v>1</v>
       </c>
       <c r="G25" s="1">
         <v>0</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="26">
         <v>0</v>
       </c>
       <c r="I25">
@@ -8298,48 +8292,48 @@
       <c r="CN25" s="4">
         <v>14</v>
       </c>
-      <c r="CO25" s="7">
+      <c r="CO25" s="38">
         <v>12</v>
       </c>
-      <c r="CP25" s="7">
-        <v>0</v>
-      </c>
-      <c r="CQ25" s="7">
+      <c r="CP25" s="38">
+        <v>0</v>
+      </c>
+      <c r="CQ25" s="26">
         <v>2.0750000000000002</v>
       </c>
-      <c r="CR25" s="7">
+      <c r="CR25" s="26">
         <v>2.2000000000000002</v>
       </c>
       <c r="CS25" s="4">
         <v>3.1</v>
       </c>
-      <c r="CT25" s="7">
+      <c r="CT25" s="26">
         <v>4.2</v>
       </c>
     </row>
-    <row r="26" spans="1:98" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="7">
+    <row r="26" spans="1:98" ht="15.95">
+      <c r="A26" s="26">
         <v>123</v>
       </c>
-      <c r="B26" s="7">
-        <v>0</v>
-      </c>
-      <c r="C26" s="7">
+      <c r="B26" s="26">
+        <v>0</v>
+      </c>
+      <c r="C26" s="26">
         <v>19</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="26">
         <v>1</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="26">
         <v>12</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="26">
         <v>1</v>
       </c>
       <c r="G26" s="1">
         <v>0</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="26">
         <v>0</v>
       </c>
       <c r="I26">
@@ -8600,48 +8594,48 @@
       <c r="CN26" s="4">
         <v>9</v>
       </c>
-      <c r="CO26" s="7">
+      <c r="CO26" s="38">
         <v>23</v>
       </c>
-      <c r="CP26" s="7">
-        <v>0</v>
-      </c>
-      <c r="CQ26" s="7">
+      <c r="CP26" s="38">
+        <v>0</v>
+      </c>
+      <c r="CQ26" s="26">
         <v>3.875</v>
       </c>
-      <c r="CR26" s="7">
+      <c r="CR26" s="26">
         <v>4.4000000000000004</v>
       </c>
       <c r="CS26" s="4">
         <v>3.4</v>
       </c>
-      <c r="CT26" s="7">
+      <c r="CT26" s="26">
         <v>3.8</v>
       </c>
     </row>
-    <row r="27" spans="1:98" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="7">
+    <row r="27" spans="1:98" ht="15.95">
+      <c r="A27" s="26">
         <v>124</v>
       </c>
-      <c r="B27" s="7">
-        <v>0</v>
-      </c>
-      <c r="C27" s="7">
+      <c r="B27" s="26">
+        <v>0</v>
+      </c>
+      <c r="C27" s="26">
         <v>19</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="26">
         <v>1</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="26">
         <v>12</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="26">
         <v>1</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="26">
         <v>0</v>
       </c>
       <c r="I27">
@@ -8902,39 +8896,39 @@
       <c r="CN27" s="4">
         <v>2</v>
       </c>
-      <c r="CO27" s="7">
+      <c r="CO27" s="38">
         <v>21</v>
       </c>
-      <c r="CP27" s="7">
-        <v>0</v>
-      </c>
-      <c r="CQ27" s="7">
+      <c r="CP27" s="38">
+        <v>0</v>
+      </c>
+      <c r="CQ27" s="26">
         <v>3.2750000000000004</v>
       </c>
-      <c r="CR27" s="7">
+      <c r="CR27" s="26">
         <v>2.4</v>
       </c>
       <c r="CS27" s="4">
         <v>4.9000000000000004</v>
       </c>
-      <c r="CT27" s="7">
+      <c r="CT27" s="26">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:98" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="7">
+    <row r="28" spans="1:98" ht="15.95">
+      <c r="A28" s="26">
         <v>200</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="26">
         <v>1</v>
       </c>
       <c r="C28" s="1">
         <v>78</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="26">
         <v>1</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="26">
         <v>16</v>
       </c>
       <c r="F28" s="1">
@@ -8943,7 +8937,7 @@
       <c r="G28" s="1">
         <v>0</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="26">
         <v>0</v>
       </c>
       <c r="I28">
@@ -9204,39 +9198,39 @@
       <c r="CN28" s="4">
         <v>4</v>
       </c>
-      <c r="CO28" s="7">
+      <c r="CO28" s="38">
         <v>18</v>
       </c>
-      <c r="CP28" s="7">
+      <c r="CP28" s="38">
         <v>3</v>
       </c>
-      <c r="CQ28" s="7">
+      <c r="CQ28" s="26">
         <v>2.4750000000000001</v>
       </c>
-      <c r="CR28" s="7">
+      <c r="CR28" s="26">
         <v>2.8499999999999996</v>
       </c>
       <c r="CS28" s="4">
         <v>4.8</v>
       </c>
-      <c r="CT28" s="7">
+      <c r="CT28" s="26">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:98" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="7">
+    <row r="29" spans="1:98" ht="15.95">
+      <c r="A29" s="26">
         <v>201</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="26">
         <v>1</v>
       </c>
       <c r="C29" s="1">
         <v>78</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="26">
         <v>1</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="26">
         <v>20</v>
       </c>
       <c r="F29" s="1">
@@ -9245,7 +9239,7 @@
       <c r="G29" s="1">
         <v>0</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="26">
         <v>0</v>
       </c>
       <c r="I29">
@@ -9506,39 +9500,39 @@
       <c r="CN29" s="4">
         <v>1</v>
       </c>
-      <c r="CO29" s="7">
+      <c r="CO29" s="38">
         <v>20</v>
       </c>
-      <c r="CP29" s="7">
+      <c r="CP29" s="38">
         <v>4</v>
       </c>
-      <c r="CQ29" s="7">
+      <c r="CQ29" s="26">
         <v>1.875</v>
       </c>
-      <c r="CR29" s="7">
+      <c r="CR29" s="26">
         <v>2.5499999999999998</v>
       </c>
       <c r="CS29" s="4">
         <v>5</v>
       </c>
-      <c r="CT29" s="7">
+      <c r="CT29" s="26">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:98" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="7">
+    <row r="30" spans="1:98" ht="15.95">
+      <c r="A30" s="26">
         <v>202</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="26">
         <v>1</v>
       </c>
       <c r="C30" s="1">
         <v>79</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="26">
         <v>1</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="26">
         <v>16</v>
       </c>
       <c r="F30" s="1">
@@ -9547,7 +9541,7 @@
       <c r="G30" s="1">
         <v>0</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="26">
         <v>0</v>
       </c>
       <c r="I30">
@@ -9808,39 +9802,39 @@
       <c r="CN30" s="4">
         <v>5</v>
       </c>
-      <c r="CO30" s="7">
+      <c r="CO30" s="38">
         <v>15</v>
       </c>
-      <c r="CP30" s="7">
+      <c r="CP30" s="38">
         <v>3</v>
       </c>
-      <c r="CQ30" s="7">
+      <c r="CQ30" s="26">
         <v>2.5000000000000004</v>
       </c>
-      <c r="CR30" s="7">
+      <c r="CR30" s="26">
         <v>3.0999999999999996</v>
       </c>
       <c r="CS30" s="4">
         <v>5</v>
       </c>
-      <c r="CT30" s="7">
+      <c r="CT30" s="26">
         <v>4.2</v>
       </c>
     </row>
-    <row r="31" spans="1:98" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="7">
+    <row r="31" spans="1:98" ht="15.95">
+      <c r="A31" s="26">
         <v>203</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="26">
         <v>1</v>
       </c>
       <c r="C31" s="1">
         <v>79</v>
       </c>
-      <c r="D31" s="7">
-        <v>0</v>
-      </c>
-      <c r="E31" s="7">
+      <c r="D31" s="26">
+        <v>0</v>
+      </c>
+      <c r="E31" s="26">
         <v>18</v>
       </c>
       <c r="F31" s="1">
@@ -9849,7 +9843,7 @@
       <c r="G31" s="1">
         <v>0</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="26">
         <v>0</v>
       </c>
       <c r="I31">
@@ -10110,39 +10104,39 @@
       <c r="CN31" s="4">
         <v>0</v>
       </c>
-      <c r="CO31" s="7">
+      <c r="CO31" s="38">
         <v>11</v>
       </c>
-      <c r="CP31" s="7">
+      <c r="CP31" s="38">
         <v>3</v>
       </c>
-      <c r="CQ31" s="7">
+      <c r="CQ31" s="26">
         <v>1</v>
       </c>
-      <c r="CR31" s="7">
+      <c r="CR31" s="26">
         <v>1.8499999999999999</v>
       </c>
       <c r="CS31" s="4">
         <v>4.2</v>
       </c>
-      <c r="CT31" s="7">
+      <c r="CT31" s="26">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:98" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="7">
+    <row r="32" spans="1:98" ht="15.95">
+      <c r="A32" s="26">
         <v>206</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="26">
         <v>1</v>
       </c>
       <c r="C32" s="1">
         <v>81</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="26">
         <v>1</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="26">
         <v>16</v>
       </c>
       <c r="F32" s="1">
@@ -10151,7 +10145,7 @@
       <c r="G32" s="1">
         <v>0</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="26">
         <v>0</v>
       </c>
       <c r="I32">
@@ -10412,39 +10406,39 @@
       <c r="CN32" s="4">
         <v>4</v>
       </c>
-      <c r="CO32" s="7">
+      <c r="CO32" s="38">
         <v>14</v>
       </c>
-      <c r="CP32" s="7">
-        <v>0</v>
-      </c>
-      <c r="CQ32" s="7">
+      <c r="CP32" s="38">
+        <v>0</v>
+      </c>
+      <c r="CQ32" s="26">
         <v>1.1000000000000001</v>
       </c>
-      <c r="CR32" s="7">
+      <c r="CR32" s="26">
         <v>1.6</v>
       </c>
       <c r="CS32" s="4">
         <v>5</v>
       </c>
-      <c r="CT32" s="7">
+      <c r="CT32" s="26">
         <v>4.2</v>
       </c>
     </row>
-    <row r="33" spans="1:98" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="7">
+    <row r="33" spans="1:98" ht="15.95">
+      <c r="A33" s="26">
         <v>208</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="26">
         <v>1</v>
       </c>
       <c r="C33" s="1">
         <v>64</v>
       </c>
-      <c r="D33" s="7">
-        <v>0</v>
-      </c>
-      <c r="E33" s="7">
+      <c r="D33" s="26">
+        <v>0</v>
+      </c>
+      <c r="E33" s="26">
         <v>16</v>
       </c>
       <c r="F33" s="1">
@@ -10453,7 +10447,7 @@
       <c r="G33" s="1">
         <v>0</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H33" s="26">
         <v>0</v>
       </c>
       <c r="I33">
@@ -10714,39 +10708,39 @@
       <c r="CN33" s="4">
         <v>26</v>
       </c>
-      <c r="CO33" s="7">
+      <c r="CO33" s="38">
         <v>10</v>
       </c>
-      <c r="CP33" s="7">
-        <v>0</v>
-      </c>
-      <c r="CQ33" s="7">
+      <c r="CP33" s="38">
+        <v>0</v>
+      </c>
+      <c r="CQ33" s="26">
         <v>2.15</v>
       </c>
-      <c r="CR33" s="7">
+      <c r="CR33" s="26">
         <v>2</v>
       </c>
       <c r="CS33" s="4">
         <v>4.3</v>
       </c>
-      <c r="CT33" s="7">
+      <c r="CT33" s="26">
         <v>3.4</v>
       </c>
     </row>
-    <row r="34" spans="1:98" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="7">
+    <row r="34" spans="1:98" ht="15.95">
+      <c r="A34" s="26">
         <v>212</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="26">
         <v>1</v>
       </c>
       <c r="C34" s="1">
         <v>78</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="26">
         <v>1</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="26">
         <v>20</v>
       </c>
       <c r="F34" s="1">
@@ -10755,7 +10749,7 @@
       <c r="G34" s="1">
         <v>0</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="26">
         <v>0</v>
       </c>
       <c r="I34">
@@ -11016,39 +11010,39 @@
       <c r="CN34" s="4">
         <v>6</v>
       </c>
-      <c r="CO34" s="7">
+      <c r="CO34" s="38">
         <v>22</v>
       </c>
-      <c r="CP34" s="7">
+      <c r="CP34" s="38">
         <v>3</v>
       </c>
-      <c r="CQ34" s="7">
+      <c r="CQ34" s="26">
         <v>1.8499999999999999</v>
       </c>
-      <c r="CR34" s="7">
+      <c r="CR34" s="26">
         <v>3.4499999999999997</v>
       </c>
       <c r="CS34" s="4">
         <v>4.5999999999999996</v>
       </c>
-      <c r="CT34" s="7">
+      <c r="CT34" s="26">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="35" spans="1:98" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="7">
+    <row r="35" spans="1:98" ht="15.95">
+      <c r="A35" s="26">
         <v>213</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="26">
         <v>1</v>
       </c>
       <c r="C35" s="1">
         <v>83</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="26">
         <v>1</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="26">
         <v>18</v>
       </c>
       <c r="F35" s="1">
@@ -11057,7 +11051,7 @@
       <c r="G35" s="1">
         <v>0</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="26">
         <v>0</v>
       </c>
       <c r="I35">
@@ -11318,39 +11312,39 @@
       <c r="CN35" s="4">
         <v>16</v>
       </c>
-      <c r="CO35" s="7">
+      <c r="CO35" s="38">
         <v>9</v>
       </c>
-      <c r="CP35" s="7">
-        <v>0</v>
-      </c>
-      <c r="CQ35" s="7">
+      <c r="CP35" s="38">
+        <v>0</v>
+      </c>
+      <c r="CQ35" s="26">
         <v>1.325</v>
       </c>
-      <c r="CR35" s="7">
+      <c r="CR35" s="26">
         <v>2.15</v>
       </c>
       <c r="CS35" s="4">
         <v>5</v>
       </c>
-      <c r="CT35" s="7">
+      <c r="CT35" s="26">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:98" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="7">
+    <row r="36" spans="1:98" ht="15.95">
+      <c r="A36" s="26">
         <v>215</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="26">
         <v>1</v>
       </c>
       <c r="C36" s="1">
         <v>68</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="26">
         <v>1</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="26">
         <v>16</v>
       </c>
       <c r="F36" s="1">
@@ -11359,7 +11353,7 @@
       <c r="G36" s="1">
         <v>0</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H36" s="26">
         <v>1</v>
       </c>
       <c r="I36">
@@ -11620,36 +11614,36 @@
       <c r="CN36" s="4">
         <v>19</v>
       </c>
-      <c r="CO36" s="7">
+      <c r="CO36" s="38">
         <v>17</v>
       </c>
-      <c r="CP36" s="7">
-        <v>0</v>
-      </c>
-      <c r="CQ36" s="7">
+      <c r="CP36" s="38">
+        <v>0</v>
+      </c>
+      <c r="CQ36" s="26">
         <v>2.4500000000000002</v>
       </c>
-      <c r="CR36" s="7">
+      <c r="CR36" s="26">
         <v>2.1</v>
       </c>
       <c r="CS36" s="4">
         <v>2.5</v>
       </c>
-      <c r="CT36" s="7">
+      <c r="CT36" s="26">
         <v>3.4</v>
       </c>
     </row>
-    <row r="37" spans="1:98" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="7">
+    <row r="37" spans="1:98" ht="15.95">
+      <c r="A37" s="26">
         <v>216</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="26">
         <v>1</v>
       </c>
       <c r="C37" s="1">
         <v>74</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="26">
         <v>0</v>
       </c>
       <c r="E37" s="5">
@@ -11661,7 +11655,7 @@
       <c r="G37" s="1">
         <v>0</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H37" s="26">
         <v>0</v>
       </c>
       <c r="I37">
@@ -11922,39 +11916,39 @@
       <c r="CN37" s="4">
         <v>1</v>
       </c>
-      <c r="CO37" s="7">
+      <c r="CO37" s="38">
         <v>21</v>
       </c>
-      <c r="CP37" s="7">
+      <c r="CP37" s="38">
         <v>3</v>
       </c>
-      <c r="CQ37" s="7">
+      <c r="CQ37" s="26">
         <v>2</v>
       </c>
-      <c r="CR37" s="7">
+      <c r="CR37" s="26">
         <v>3.5</v>
       </c>
       <c r="CS37" s="4">
         <v>4.5999999999999996</v>
       </c>
-      <c r="CT37" s="7">
+      <c r="CT37" s="26">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:98" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="7">
+    <row r="38" spans="1:98" ht="15.95">
+      <c r="A38" s="26">
         <v>217</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="26">
         <v>1</v>
       </c>
       <c r="C38" s="1">
         <v>70</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="26">
         <v>1</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="26">
         <v>16</v>
       </c>
       <c r="F38" s="1">
@@ -11963,7 +11957,7 @@
       <c r="G38" s="1">
         <v>0</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H38" s="26">
         <v>0</v>
       </c>
       <c r="I38">
@@ -12224,39 +12218,39 @@
       <c r="CN38" s="4">
         <v>1</v>
       </c>
-      <c r="CO38" s="7">
+      <c r="CO38" s="38">
         <v>20</v>
       </c>
-      <c r="CP38" s="7">
+      <c r="CP38" s="38">
         <v>3</v>
       </c>
-      <c r="CQ38" s="7">
+      <c r="CQ38" s="26">
         <v>4.6749999999999998</v>
       </c>
-      <c r="CR38" s="7">
+      <c r="CR38" s="26">
         <v>3.5</v>
       </c>
       <c r="CS38" s="4">
         <v>1</v>
       </c>
-      <c r="CT38" s="7">
+      <c r="CT38" s="26">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:98" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="7">
+    <row r="39" spans="1:98" ht="15.95">
+      <c r="A39" s="26">
         <v>218</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="26">
         <v>1</v>
       </c>
       <c r="C39" s="1">
         <v>71</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="26">
         <v>1</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="26">
         <v>16</v>
       </c>
       <c r="F39" s="1">
@@ -12265,7 +12259,7 @@
       <c r="G39" s="1">
         <v>0</v>
       </c>
-      <c r="H39" s="7">
+      <c r="H39" s="26">
         <v>0</v>
       </c>
       <c r="I39">
@@ -12526,39 +12520,39 @@
       <c r="CN39" s="4">
         <v>1</v>
       </c>
-      <c r="CO39" s="7">
+      <c r="CO39" s="38">
         <v>16</v>
       </c>
-      <c r="CP39" s="7">
-        <v>0</v>
-      </c>
-      <c r="CQ39" s="7">
+      <c r="CP39" s="38">
+        <v>0</v>
+      </c>
+      <c r="CQ39" s="26">
         <v>2.6500000000000004</v>
       </c>
-      <c r="CR39" s="7">
+      <c r="CR39" s="26">
         <v>3.05</v>
       </c>
       <c r="CS39" s="4">
         <v>4.8</v>
       </c>
-      <c r="CT39" s="7">
+      <c r="CT39" s="26">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:98" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="7">
+    <row r="40" spans="1:98" ht="15.95">
+      <c r="A40" s="26">
         <v>219</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="26">
         <v>1</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="26">
         <v>63</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="26">
         <v>1</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="26">
         <v>18</v>
       </c>
       <c r="F40" s="1">
@@ -12567,7 +12561,7 @@
       <c r="G40" s="1">
         <v>0</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H40" s="26">
         <v>0</v>
       </c>
       <c r="I40">
@@ -12828,48 +12822,48 @@
       <c r="CN40" s="4">
         <v>1</v>
       </c>
-      <c r="CO40" s="7">
+      <c r="CO40" s="38">
         <v>19</v>
       </c>
-      <c r="CP40" s="7">
+      <c r="CP40" s="38">
         <v>4</v>
       </c>
-      <c r="CQ40" s="7">
+      <c r="CQ40" s="26">
         <v>2.4750000000000001</v>
       </c>
-      <c r="CR40" s="7">
+      <c r="CR40" s="26">
         <v>2.8000000000000003</v>
       </c>
       <c r="CS40" s="4">
         <v>4.3</v>
       </c>
-      <c r="CT40" s="7">
+      <c r="CT40" s="26">
         <v>3.8</v>
       </c>
     </row>
-    <row r="41" spans="1:98" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="7">
+    <row r="41" spans="1:98" ht="15.95">
+      <c r="A41" s="26">
         <v>220</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="26">
         <v>1</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="26">
         <v>71</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="26">
         <v>1</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="26">
         <v>20</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="26">
         <v>0</v>
       </c>
       <c r="G41" s="1">
         <v>0</v>
       </c>
-      <c r="H41" s="7">
+      <c r="H41" s="26">
         <v>0</v>
       </c>
       <c r="I41">
@@ -13130,48 +13124,48 @@
       <c r="CN41" s="4">
         <v>0</v>
       </c>
-      <c r="CO41" s="7">
+      <c r="CO41" s="38">
         <v>21</v>
       </c>
-      <c r="CP41" s="7">
+      <c r="CP41" s="38">
         <v>3</v>
       </c>
-      <c r="CQ41" s="7">
+      <c r="CQ41" s="26">
         <v>1.925</v>
       </c>
-      <c r="CR41" s="7">
+      <c r="CR41" s="26">
         <v>2.65</v>
       </c>
       <c r="CS41" s="4">
         <v>4.9000000000000004</v>
       </c>
-      <c r="CT41" s="7">
+      <c r="CT41" s="26">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:98" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="7">
+    <row r="42" spans="1:98" ht="15.95">
+      <c r="A42" s="26">
         <v>222</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="26">
         <v>1</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="26">
         <v>66</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" s="26">
         <v>1</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="26">
         <v>18</v>
       </c>
-      <c r="F42" s="7">
-        <v>0</v>
-      </c>
-      <c r="G42" s="7">
-        <v>0</v>
-      </c>
-      <c r="H42" s="7">
+      <c r="F42" s="26">
+        <v>0</v>
+      </c>
+      <c r="G42" s="26">
+        <v>0</v>
+      </c>
+      <c r="H42" s="26">
         <v>0</v>
       </c>
       <c r="I42">
@@ -13432,48 +13426,48 @@
       <c r="CN42" s="4">
         <v>5</v>
       </c>
-      <c r="CO42" s="7">
+      <c r="CO42" s="38">
         <v>14</v>
       </c>
-      <c r="CP42" s="7">
+      <c r="CP42" s="38">
         <v>4</v>
       </c>
-      <c r="CQ42" s="7">
+      <c r="CQ42" s="26">
         <v>2.95</v>
       </c>
-      <c r="CR42" s="7">
+      <c r="CR42" s="26">
         <v>3.45</v>
       </c>
       <c r="CS42" s="4">
         <v>4.9000000000000004</v>
       </c>
-      <c r="CT42" s="7">
+      <c r="CT42" s="26">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:98" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="7">
+    <row r="43" spans="1:98" ht="15.95">
+      <c r="A43" s="26">
         <v>223</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="26">
         <v>1</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="26">
         <v>64</v>
       </c>
-      <c r="D43" s="7">
-        <v>0</v>
-      </c>
-      <c r="E43" s="7">
+      <c r="D43" s="26">
+        <v>0</v>
+      </c>
+      <c r="E43" s="26">
         <v>16</v>
       </c>
-      <c r="F43" s="7">
-        <v>0</v>
-      </c>
-      <c r="G43" s="7">
-        <v>0</v>
-      </c>
-      <c r="H43" s="7">
+      <c r="F43" s="26">
+        <v>0</v>
+      </c>
+      <c r="G43" s="26">
+        <v>0</v>
+      </c>
+      <c r="H43" s="26">
         <v>0</v>
       </c>
       <c r="I43">
@@ -13734,48 +13728,48 @@
       <c r="CN43" s="4">
         <v>9</v>
       </c>
-      <c r="CO43" s="7">
+      <c r="CO43" s="38">
         <v>14</v>
       </c>
-      <c r="CP43" s="7">
+      <c r="CP43" s="38">
         <v>2</v>
       </c>
-      <c r="CQ43" s="7">
+      <c r="CQ43" s="26">
         <v>2.0750000000000002</v>
       </c>
-      <c r="CR43" s="7">
+      <c r="CR43" s="26">
         <v>2.4</v>
       </c>
       <c r="CS43" s="4">
         <v>4.8</v>
       </c>
-      <c r="CT43" s="7">
+      <c r="CT43" s="26">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="44" spans="1:98" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="7">
+    <row r="44" spans="1:98" ht="15.95">
+      <c r="A44" s="26">
         <v>224</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="26">
         <v>1</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="26">
         <v>60</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44" s="26">
         <v>1</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44" s="26">
         <v>18</v>
       </c>
-      <c r="F44" s="7">
-        <v>0</v>
-      </c>
-      <c r="G44" s="7">
-        <v>0</v>
-      </c>
-      <c r="H44" s="7">
+      <c r="F44" s="26">
+        <v>0</v>
+      </c>
+      <c r="G44" s="26">
+        <v>0</v>
+      </c>
+      <c r="H44" s="26">
         <v>0</v>
       </c>
       <c r="I44">
@@ -14036,48 +14030,48 @@
       <c r="CN44" s="4">
         <v>4</v>
       </c>
-      <c r="CO44" s="7">
+      <c r="CO44" s="38">
         <v>20</v>
       </c>
-      <c r="CP44" s="7">
+      <c r="CP44" s="38">
         <v>2</v>
       </c>
-      <c r="CQ44" s="7">
+      <c r="CQ44" s="26">
         <v>1.375</v>
       </c>
-      <c r="CR44" s="7">
+      <c r="CR44" s="26">
         <v>2</v>
       </c>
       <c r="CS44" s="4">
         <v>4.8</v>
       </c>
-      <c r="CT44" s="7">
+      <c r="CT44" s="26">
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:98" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="7">
+    <row r="45" spans="1:98" ht="15.95">
+      <c r="A45" s="26">
         <v>225</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="26">
         <v>1</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="26">
         <v>68</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="26">
         <v>1</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="26">
         <v>18</v>
       </c>
-      <c r="F45" s="7">
-        <v>0</v>
-      </c>
-      <c r="G45" s="7">
-        <v>0</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="F45" s="26">
+        <v>0</v>
+      </c>
+      <c r="G45" s="26">
+        <v>0</v>
+      </c>
+      <c r="H45" s="26">
         <v>0</v>
       </c>
       <c r="I45">
@@ -14329,7 +14323,7 @@
       <c r="CK45" s="3">
         <v>72</v>
       </c>
-      <c r="CL45" s="7">
+      <c r="CL45" s="26">
         <v>48</v>
       </c>
       <c r="CM45" s="3">
@@ -14338,48 +14332,48 @@
       <c r="CN45" s="4">
         <v>7</v>
       </c>
-      <c r="CO45" s="7">
+      <c r="CO45" s="38">
         <v>22</v>
       </c>
-      <c r="CP45" s="7">
+      <c r="CP45" s="38">
         <v>4</v>
       </c>
-      <c r="CQ45" s="7">
+      <c r="CQ45" s="26">
         <v>2.85</v>
       </c>
-      <c r="CR45" s="7">
+      <c r="CR45" s="26">
         <v>3.15</v>
       </c>
-      <c r="CS45" s="7">
+      <c r="CS45" s="26">
         <v>4.5999999999999996</v>
       </c>
-      <c r="CT45" s="7">
+      <c r="CT45" s="26">
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:98" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="7">
+    <row r="46" spans="1:98" ht="15.95">
+      <c r="A46" s="26">
         <v>226</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46" s="26">
         <v>1</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="26">
         <v>75</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" s="26">
         <v>1</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="26">
         <v>16</v>
       </c>
-      <c r="F46" s="7">
-        <v>0</v>
-      </c>
-      <c r="G46" s="7">
-        <v>0</v>
-      </c>
-      <c r="H46" s="7">
+      <c r="F46" s="26">
+        <v>0</v>
+      </c>
+      <c r="G46" s="26">
+        <v>0</v>
+      </c>
+      <c r="H46" s="26">
         <v>0</v>
       </c>
       <c r="I46">
@@ -14631,7 +14625,7 @@
       <c r="CK46" s="3">
         <v>75</v>
       </c>
-      <c r="CL46" s="7">
+      <c r="CL46" s="26">
         <v>36</v>
       </c>
       <c r="CM46" s="3">
@@ -14640,48 +14634,48 @@
       <c r="CN46" s="4">
         <v>3</v>
       </c>
-      <c r="CO46" s="7">
+      <c r="CO46" s="38">
         <v>16</v>
       </c>
-      <c r="CP46" s="7">
+      <c r="CP46" s="38">
         <v>2</v>
       </c>
-      <c r="CQ46" s="7">
+      <c r="CQ46" s="26">
         <v>1.5499999999999998</v>
       </c>
-      <c r="CR46" s="7">
+      <c r="CR46" s="26">
         <v>2.75</v>
       </c>
-      <c r="CS46" s="7">
+      <c r="CS46" s="26">
         <v>5</v>
       </c>
-      <c r="CT46" s="7">
+      <c r="CT46" s="26">
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:98" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="7">
+    <row r="47" spans="1:98" ht="15.95">
+      <c r="A47" s="26">
         <v>227</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="26">
         <v>1</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="26">
         <v>79</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D47" s="26">
         <v>1</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E47" s="26">
         <v>16</v>
       </c>
-      <c r="F47" s="7">
-        <v>0</v>
-      </c>
-      <c r="G47" s="7">
-        <v>0</v>
-      </c>
-      <c r="H47" s="7">
+      <c r="F47" s="26">
+        <v>0</v>
+      </c>
+      <c r="G47" s="26">
+        <v>0</v>
+      </c>
+      <c r="H47" s="26">
         <v>0</v>
       </c>
       <c r="I47">
@@ -14933,7 +14927,7 @@
       <c r="CK47" s="3">
         <v>75</v>
       </c>
-      <c r="CL47" s="7">
+      <c r="CL47" s="26">
         <v>34</v>
       </c>
       <c r="CM47" s="3">
@@ -14942,48 +14936,48 @@
       <c r="CN47" s="4">
         <v>1</v>
       </c>
-      <c r="CO47" s="7">
+      <c r="CO47" s="38">
         <v>22</v>
       </c>
-      <c r="CP47" s="7">
-        <v>0</v>
-      </c>
-      <c r="CQ47" s="7">
+      <c r="CP47" s="38">
+        <v>0</v>
+      </c>
+      <c r="CQ47" s="26">
         <v>3.45</v>
       </c>
-      <c r="CR47" s="7">
+      <c r="CR47" s="26">
         <v>3.9499999999999997</v>
       </c>
-      <c r="CS47" s="7">
+      <c r="CS47" s="26">
         <v>4.9000000000000004</v>
       </c>
-      <c r="CT47" s="7">
+      <c r="CT47" s="26">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:98" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="7">
+    <row r="48" spans="1:98" ht="15.95">
+      <c r="A48" s="26">
         <v>228</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48" s="26">
         <v>1</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="26">
         <v>73</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="26">
         <v>1</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E48" s="26">
         <v>20</v>
       </c>
-      <c r="F48" s="7">
-        <v>0</v>
-      </c>
-      <c r="G48" s="7">
-        <v>0</v>
-      </c>
-      <c r="H48" s="7">
+      <c r="F48" s="26">
+        <v>0</v>
+      </c>
+      <c r="G48" s="26">
+        <v>0</v>
+      </c>
+      <c r="H48" s="26">
         <v>0</v>
       </c>
       <c r="I48">
@@ -15235,7 +15229,7 @@
       <c r="CK48" s="3">
         <v>77</v>
       </c>
-      <c r="CL48" s="7">
+      <c r="CL48" s="26">
         <v>44</v>
       </c>
       <c r="CM48" s="3">
@@ -15244,22 +15238,22 @@
       <c r="CN48" s="4">
         <v>1</v>
       </c>
-      <c r="CO48" s="7">
+      <c r="CO48" s="38">
         <v>16</v>
       </c>
-      <c r="CP48" s="7">
-        <v>0</v>
-      </c>
-      <c r="CQ48" s="7">
+      <c r="CP48" s="38">
+        <v>0</v>
+      </c>
+      <c r="CQ48" s="26">
         <v>2.5750000000000002</v>
       </c>
-      <c r="CR48" s="7">
+      <c r="CR48" s="26">
         <v>2.75</v>
       </c>
-      <c r="CS48" s="7">
+      <c r="CS48" s="26">
         <v>5</v>
       </c>
-      <c r="CT48" s="7">
+      <c r="CT48" s="26">
         <v>5</v>
       </c>
     </row>
@@ -15283,585 +15277,561 @@
   <dimension ref="A1:E107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>91</v>
+    <row r="1" spans="1:5">
+      <c r="A1" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B7" t="s">
-        <v>97</v>
-      </c>
+    <row r="12" spans="1:5">
+      <c r="A12" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="38" t="s">
+    <row r="19" spans="1:5">
+      <c r="A19" s="25" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="38" t="s">
+    <row r="20" spans="1:5">
+      <c r="A20" s="25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="38" t="s">
+    <row r="27" spans="1:5">
+      <c r="A27" s="25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="38" t="s">
+    <row r="28" spans="1:5">
+      <c r="A28" s="25" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="38" t="s">
+    <row r="29" spans="1:5">
+      <c r="A29" s="25" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="38" t="s">
+    <row r="30" spans="1:5">
+      <c r="A30" s="25" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="17" t="s">
+    <row r="31" spans="1:5">
+      <c r="A31" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35" s="6" t="s">
-        <v>102</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="A40" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5">
       <c r="A41" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5">
       <c r="A42" s="6" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="A43" s="6" t="s">
-        <v>104</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="23" t="s">
+    <row r="44" spans="1:5">
+      <c r="A44" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="25" t="s">
+    <row r="53" spans="1:5">
+      <c r="A53" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B53" s="26"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5">
       <c r="A54" s="6" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5">
       <c r="A55" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5">
       <c r="A56" s="6" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5">
       <c r="A57" s="6" t="s">
-        <v>102</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5">
       <c r="A58" s="6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5">
       <c r="A59" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5">
       <c r="A60" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5">
       <c r="A61" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5">
       <c r="A62" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5">
       <c r="A63" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5">
       <c r="A64" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1">
       <c r="A65" s="6" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1">
       <c r="A66" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1">
       <c r="A67" s="6" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1">
       <c r="A68" s="6" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1">
       <c r="A69" s="6" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1">
       <c r="A70" s="6" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1">
       <c r="A71" s="6" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1">
       <c r="A72" s="6" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1">
       <c r="A73" s="6" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1">
       <c r="A74" s="6" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1">
       <c r="A75" s="6" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1">
       <c r="A76" s="6" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1">
       <c r="A77" s="6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1">
       <c r="A78" s="6" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1">
       <c r="A79" s="6" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1">
       <c r="A80" s="6" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5">
       <c r="A81" s="6" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5">
       <c r="A82" s="6" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5">
       <c r="A83" s="6" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5">
       <c r="A84" s="6" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5">
       <c r="A85" s="6" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" s="18" t="s">
+    <row r="86" spans="1:5">
+      <c r="A86" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B86" s="20"/>
-      <c r="C86" s="20"/>
-      <c r="D86" s="20"/>
-      <c r="E86" s="20"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" s="19" t="s">
+    <row r="97" spans="1:5">
+      <c r="A97" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B97" s="21"/>
-      <c r="C97" s="21"/>
-      <c r="D97" s="21"/>
-      <c r="E97" s="21"/>
+      <c r="B97" s="15"/>
+      <c r="C97" s="15"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="15"/>
     </row>
-    <row r="98" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A98" s="27" t="s">
-        <v>82</v>
+    <row r="98" spans="1:5" ht="15.75">
+      <c r="A98" s="21" t="s">
+        <v>92</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A99" s="27" t="s">
-        <v>83</v>
+    <row r="99" spans="1:5" ht="15.75">
+      <c r="A99" s="21" t="s">
+        <v>93</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A100" s="27" t="s">
-        <v>84</v>
+    <row r="100" spans="1:5" ht="15.75">
+      <c r="A100" s="21" t="s">
+        <v>94</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A101" s="28" t="s">
-        <v>85</v>
+    <row r="101" spans="1:5" ht="15.75">
+      <c r="A101" s="22" t="s">
+        <v>95</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A102" s="29" t="s">
-        <v>86</v>
+    <row r="102" spans="1:5" ht="15.75">
+      <c r="A102" s="23" t="s">
+        <v>96</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A103" s="29" t="s">
-        <v>87</v>
+    <row r="103" spans="1:5" ht="15.75">
+      <c r="A103" s="23" t="s">
+        <v>97</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A104" s="27" t="s">
-        <v>113</v>
+    <row r="104" spans="1:5" ht="15.75">
+      <c r="A104" s="21" t="s">
+        <v>98</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A105" s="27" t="s">
-        <v>114</v>
+    <row r="105" spans="1:5" ht="15.75">
+      <c r="A105" s="21" t="s">
+        <v>99</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A106" s="27" t="s">
-        <v>88</v>
+    <row r="106" spans="1:5" ht="15.75">
+      <c r="A106" s="21" t="s">
+        <v>100</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A107" s="29" t="s">
-        <v>89</v>
+    <row r="107" spans="1:5" ht="15.75">
+      <c r="A107" s="23" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/Face-name raw data.xlsx
+++ b/Face-name raw data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="127" documentId="13_ncr:1_{3611A960-2721-4647-9D6C-F2888009BDB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA9A2B00-031F-49DA-8B6A-7801EE035541}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE3F8FB-6FB3-2E42-811D-AD550920189A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7880" yWindow="760" windowWidth="26640" windowHeight="15860" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2060" yWindow="760" windowWidth="26640" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SPSS Data" sheetId="1" r:id="rId1"/>
@@ -362,7 +362,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -442,7 +442,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -491,12 +491,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -510,7 +504,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -555,10 +549,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -581,19 +582,10 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -624,9 +616,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -664,9 +656,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -699,26 +691,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -751,26 +726,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -947,129 +905,129 @@
   <dimension ref="A1:CT48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="CI15" sqref="CI15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="27" max="43" width="9.140625"/>
+    <col min="27" max="43" width="9.1640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:98" s="7" customFormat="1">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="30" t="s">
+    <row r="1" spans="1:98" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="29" t="s">
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="29"/>
-      <c r="AG1" s="29"/>
-      <c r="AH1" s="29"/>
-      <c r="AI1" s="29"/>
-      <c r="AJ1" s="29"/>
-      <c r="AK1" s="29"/>
-      <c r="AL1" s="29"/>
-      <c r="AM1" s="32" t="s">
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="30"/>
+      <c r="AJ1" s="30"/>
+      <c r="AK1" s="30"/>
+      <c r="AL1" s="30"/>
+      <c r="AM1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="AN1" s="32"/>
-      <c r="AO1" s="32"/>
-      <c r="AP1" s="32"/>
-      <c r="AQ1" s="32"/>
-      <c r="AR1" s="32"/>
-      <c r="AS1" s="32"/>
-      <c r="AT1" s="32"/>
-      <c r="AU1" s="33" t="s">
+      <c r="AN1" s="33"/>
+      <c r="AO1" s="33"/>
+      <c r="AP1" s="33"/>
+      <c r="AQ1" s="33"/>
+      <c r="AR1" s="33"/>
+      <c r="AS1" s="33"/>
+      <c r="AT1" s="33"/>
+      <c r="AU1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="AV1" s="33"/>
-      <c r="AW1" s="33"/>
-      <c r="AX1" s="33"/>
-      <c r="AY1" s="33"/>
-      <c r="AZ1" s="33"/>
-      <c r="BA1" s="33"/>
-      <c r="BB1" s="33"/>
-      <c r="BC1" s="33"/>
-      <c r="BD1" s="33"/>
-      <c r="BE1" s="33"/>
-      <c r="BF1" s="33"/>
-      <c r="BG1" s="33"/>
-      <c r="BH1" s="33"/>
-      <c r="BI1" s="33"/>
-      <c r="BJ1" s="33"/>
-      <c r="BK1" s="33"/>
-      <c r="BL1" s="33"/>
-      <c r="BM1" s="33"/>
-      <c r="BN1" s="33"/>
-      <c r="BO1" s="33"/>
-      <c r="BP1" s="33"/>
-      <c r="BQ1" s="33"/>
-      <c r="BR1" s="33"/>
-      <c r="BS1" s="33"/>
-      <c r="BT1" s="33"/>
-      <c r="BU1" s="33"/>
-      <c r="BV1" s="33"/>
-      <c r="BW1" s="33"/>
-      <c r="BX1" s="33"/>
-      <c r="BY1" s="33"/>
-      <c r="BZ1" s="33"/>
-      <c r="CA1" s="27" t="s">
+      <c r="AV1" s="34"/>
+      <c r="AW1" s="34"/>
+      <c r="AX1" s="34"/>
+      <c r="AY1" s="34"/>
+      <c r="AZ1" s="34"/>
+      <c r="BA1" s="34"/>
+      <c r="BB1" s="34"/>
+      <c r="BC1" s="34"/>
+      <c r="BD1" s="34"/>
+      <c r="BE1" s="34"/>
+      <c r="BF1" s="34"/>
+      <c r="BG1" s="34"/>
+      <c r="BH1" s="34"/>
+      <c r="BI1" s="34"/>
+      <c r="BJ1" s="34"/>
+      <c r="BK1" s="34"/>
+      <c r="BL1" s="34"/>
+      <c r="BM1" s="34"/>
+      <c r="BN1" s="34"/>
+      <c r="BO1" s="34"/>
+      <c r="BP1" s="34"/>
+      <c r="BQ1" s="34"/>
+      <c r="BR1" s="34"/>
+      <c r="BS1" s="34"/>
+      <c r="BT1" s="34"/>
+      <c r="BU1" s="34"/>
+      <c r="BV1" s="34"/>
+      <c r="BW1" s="34"/>
+      <c r="BX1" s="34"/>
+      <c r="BY1" s="34"/>
+      <c r="BZ1" s="34"/>
+      <c r="CA1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="CB1" s="27"/>
-      <c r="CC1" s="27"/>
-      <c r="CD1" s="27"/>
-      <c r="CE1" s="27"/>
-      <c r="CF1" s="27"/>
-      <c r="CG1" s="27"/>
-      <c r="CH1" s="27"/>
-      <c r="CI1" s="27"/>
-      <c r="CJ1" s="27"/>
-      <c r="CK1" s="28" t="s">
+      <c r="CB1" s="28"/>
+      <c r="CC1" s="28"/>
+      <c r="CD1" s="28"/>
+      <c r="CE1" s="28"/>
+      <c r="CF1" s="28"/>
+      <c r="CG1" s="28"/>
+      <c r="CH1" s="28"/>
+      <c r="CI1" s="28"/>
+      <c r="CJ1" s="28"/>
+      <c r="CK1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="CL1" s="28"/>
-      <c r="CM1" s="28"/>
-      <c r="CN1" s="28"/>
-      <c r="CO1" s="28"/>
-      <c r="CP1" s="28"/>
-      <c r="CQ1" s="28"/>
-      <c r="CR1" s="28"/>
-      <c r="CS1" s="28"/>
-      <c r="CT1" s="28"/>
+      <c r="CL1" s="29"/>
+      <c r="CM1" s="29"/>
+      <c r="CN1" s="29"/>
+      <c r="CO1" s="29"/>
+      <c r="CP1" s="29"/>
+      <c r="CQ1" s="29"/>
+      <c r="CR1" s="29"/>
+      <c r="CS1" s="29"/>
+      <c r="CT1" s="29"/>
     </row>
-    <row r="2" spans="1:98" s="7" customFormat="1" ht="15.75">
+    <row r="2" spans="1:98" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>7</v>
       </c>
@@ -1112,10 +1070,10 @@
       <c r="N2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="24" t="s">
+      <c r="O2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="24" t="s">
+      <c r="P2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q2" s="7" t="s">
@@ -1136,16 +1094,16 @@
       <c r="V2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="W2" s="24" t="s">
+      <c r="W2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="X2" s="24" t="s">
+      <c r="X2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="Y2" s="24" t="s">
+      <c r="Y2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="Z2" s="24" t="s">
+      <c r="Z2" s="7" t="s">
         <v>32</v>
       </c>
       <c r="AA2" s="8" t="s">
@@ -1334,51 +1292,51 @@
       <c r="CJ2" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="CK2" s="34" t="s">
+      <c r="CK2" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="CL2" s="34" t="s">
+      <c r="CL2" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="CM2" s="34" t="s">
+      <c r="CM2" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="CN2" s="35" t="s">
+      <c r="CN2" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="CO2" s="37" t="s">
+      <c r="CO2" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="CP2" s="37" t="s">
+      <c r="CP2" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="CQ2" s="34" t="s">
+      <c r="CQ2" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="CR2" s="34" t="s">
+      <c r="CR2" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="CS2" s="34" t="s">
+      <c r="CS2" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="CT2" s="36" t="s">
+      <c r="CT2" s="27" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:98" ht="15.95">
-      <c r="A3" s="26">
+    <row r="3" spans="1:98" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="24">
         <v>100</v>
       </c>
-      <c r="B3" s="26">
-        <v>0</v>
-      </c>
-      <c r="C3" s="26">
+      <c r="B3" s="24">
+        <v>0</v>
+      </c>
+      <c r="C3" s="24">
         <v>21</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="24">
         <v>1</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="24">
         <v>12</v>
       </c>
       <c r="F3" s="1">
@@ -1387,7 +1345,7 @@
       <c r="G3" s="1">
         <v>0</v>
       </c>
-      <c r="H3" s="26">
+      <c r="H3" s="24">
         <v>0</v>
       </c>
       <c r="I3">
@@ -1648,39 +1606,39 @@
       <c r="CN3" s="4">
         <v>3</v>
       </c>
-      <c r="CO3" s="38">
+      <c r="CO3" s="36">
         <v>25</v>
       </c>
-      <c r="CP3" s="38">
+      <c r="CP3" s="36">
         <v>1</v>
       </c>
-      <c r="CQ3" s="26">
+      <c r="CQ3" s="24">
         <v>2.875</v>
       </c>
-      <c r="CR3" s="26">
+      <c r="CR3" s="24">
         <v>2.9</v>
       </c>
       <c r="CS3" s="4">
         <v>4.7</v>
       </c>
-      <c r="CT3" s="26">
+      <c r="CT3" s="24">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:98" ht="15.95">
-      <c r="A4" s="26">
+    <row r="4" spans="1:98" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="24">
         <v>101</v>
       </c>
-      <c r="B4" s="26">
-        <v>0</v>
-      </c>
-      <c r="C4" s="26">
+      <c r="B4" s="24">
+        <v>0</v>
+      </c>
+      <c r="C4" s="24">
         <v>26</v>
       </c>
-      <c r="D4" s="26">
-        <v>0</v>
-      </c>
-      <c r="E4" s="26">
+      <c r="D4" s="24">
+        <v>0</v>
+      </c>
+      <c r="E4" s="24">
         <v>18</v>
       </c>
       <c r="F4" s="1">
@@ -1689,7 +1647,7 @@
       <c r="G4" s="1">
         <v>0</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="24">
         <v>0</v>
       </c>
       <c r="I4">
@@ -1950,39 +1908,39 @@
       <c r="CN4" s="4">
         <v>13</v>
       </c>
-      <c r="CO4" s="38">
+      <c r="CO4" s="36">
         <v>19</v>
       </c>
-      <c r="CP4" s="38">
-        <v>0</v>
-      </c>
-      <c r="CQ4" s="26">
+      <c r="CP4" s="36">
+        <v>0</v>
+      </c>
+      <c r="CQ4" s="24">
         <v>2.3000000000000003</v>
       </c>
-      <c r="CR4" s="26">
+      <c r="CR4" s="24">
         <v>2.6</v>
       </c>
       <c r="CS4" s="4">
         <v>4.9000000000000004</v>
       </c>
-      <c r="CT4" s="26">
+      <c r="CT4" s="24">
         <v>4.8</v>
       </c>
     </row>
-    <row r="5" spans="1:98" ht="15.95">
-      <c r="A5" s="26">
+    <row r="5" spans="1:98" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="24">
         <v>102</v>
       </c>
-      <c r="B5" s="26">
-        <v>0</v>
-      </c>
-      <c r="C5" s="26">
+      <c r="B5" s="24">
+        <v>0</v>
+      </c>
+      <c r="C5" s="24">
         <v>31</v>
       </c>
-      <c r="D5" s="26">
-        <v>0</v>
-      </c>
-      <c r="E5" s="26">
+      <c r="D5" s="24">
+        <v>0</v>
+      </c>
+      <c r="E5" s="24">
         <v>12</v>
       </c>
       <c r="F5" s="1">
@@ -1991,7 +1949,7 @@
       <c r="G5" s="1">
         <v>0</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="24">
         <v>0</v>
       </c>
       <c r="I5">
@@ -2252,48 +2210,48 @@
       <c r="CN5" s="4">
         <v>13</v>
       </c>
-      <c r="CO5" s="38">
+      <c r="CO5" s="36">
         <v>23</v>
       </c>
-      <c r="CP5" s="38">
-        <v>0</v>
-      </c>
-      <c r="CQ5" s="26">
+      <c r="CP5" s="36">
+        <v>0</v>
+      </c>
+      <c r="CQ5" s="24">
         <v>2.1749999999999998</v>
       </c>
-      <c r="CR5" s="26">
+      <c r="CR5" s="24">
         <v>3.0999999999999996</v>
       </c>
       <c r="CS5" s="4">
         <v>4.9000000000000004</v>
       </c>
-      <c r="CT5" s="26">
+      <c r="CT5" s="24">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:98" ht="15.95">
-      <c r="A6" s="26">
+    <row r="6" spans="1:98" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="24">
         <v>103</v>
       </c>
-      <c r="B6" s="26">
-        <v>0</v>
-      </c>
-      <c r="C6" s="26">
+      <c r="B6" s="24">
+        <v>0</v>
+      </c>
+      <c r="C6" s="24">
         <v>23</v>
       </c>
-      <c r="D6" s="26">
-        <v>0</v>
-      </c>
-      <c r="E6" s="26">
+      <c r="D6" s="24">
+        <v>0</v>
+      </c>
+      <c r="E6" s="24">
         <v>16</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="24">
         <v>1</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="24">
         <v>0</v>
       </c>
       <c r="I6">
@@ -2554,48 +2512,48 @@
       <c r="CN6" s="4">
         <v>0</v>
       </c>
-      <c r="CO6" s="38">
+      <c r="CO6" s="36">
         <v>24</v>
       </c>
-      <c r="CP6" s="38">
-        <v>0</v>
-      </c>
-      <c r="CQ6" s="26">
+      <c r="CP6" s="36">
+        <v>0</v>
+      </c>
+      <c r="CQ6" s="24">
         <v>2.2750000000000004</v>
       </c>
-      <c r="CR6" s="26">
+      <c r="CR6" s="24">
         <v>2.35</v>
       </c>
       <c r="CS6" s="4">
         <v>3.6</v>
       </c>
-      <c r="CT6" s="26">
+      <c r="CT6" s="24">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:98" ht="15.95">
-      <c r="A7" s="26">
+    <row r="7" spans="1:98" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="24">
         <v>104</v>
       </c>
-      <c r="B7" s="26">
-        <v>0</v>
-      </c>
-      <c r="C7" s="26">
+      <c r="B7" s="24">
+        <v>0</v>
+      </c>
+      <c r="C7" s="24">
         <v>20</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="24">
         <v>1</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="24">
         <v>12</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="24">
         <v>1</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="24">
         <v>0</v>
       </c>
       <c r="I7">
@@ -2856,39 +2814,39 @@
       <c r="CN7" s="4">
         <v>4</v>
       </c>
-      <c r="CO7" s="38">
+      <c r="CO7" s="36">
         <v>18</v>
       </c>
-      <c r="CP7" s="38">
-        <v>0</v>
-      </c>
-      <c r="CQ7" s="26">
+      <c r="CP7" s="36">
+        <v>0</v>
+      </c>
+      <c r="CQ7" s="24">
         <v>2.2999999999999998</v>
       </c>
-      <c r="CR7" s="26">
+      <c r="CR7" s="24">
         <v>2.9000000000000004</v>
       </c>
       <c r="CS7" s="4">
         <v>4.5999999999999996</v>
       </c>
-      <c r="CT7" s="26">
+      <c r="CT7" s="24">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:98" ht="15.95">
-      <c r="A8" s="26">
+    <row r="8" spans="1:98" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="24">
         <v>105</v>
       </c>
-      <c r="B8" s="26">
-        <v>0</v>
-      </c>
-      <c r="C8" s="26">
+      <c r="B8" s="24">
+        <v>0</v>
+      </c>
+      <c r="C8" s="24">
         <v>30</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="24">
         <v>1</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="24">
         <v>16</v>
       </c>
       <c r="F8" s="1">
@@ -2897,7 +2855,7 @@
       <c r="G8" s="1">
         <v>0</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="24">
         <v>0</v>
       </c>
       <c r="I8">
@@ -3158,48 +3116,48 @@
       <c r="CN8" s="4">
         <v>19</v>
       </c>
-      <c r="CO8" s="38">
+      <c r="CO8" s="36">
         <v>11</v>
       </c>
-      <c r="CP8" s="38">
+      <c r="CP8" s="36">
         <v>4</v>
       </c>
-      <c r="CQ8" s="26">
+      <c r="CQ8" s="24">
         <v>3.95</v>
       </c>
-      <c r="CR8" s="26">
+      <c r="CR8" s="24">
         <v>2.75</v>
       </c>
       <c r="CS8" s="4">
         <v>1</v>
       </c>
-      <c r="CT8" s="26">
+      <c r="CT8" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:98" ht="15.95">
-      <c r="A9" s="26">
+    <row r="9" spans="1:98" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="24">
         <v>106</v>
       </c>
-      <c r="B9" s="26">
-        <v>0</v>
-      </c>
-      <c r="C9" s="26">
+      <c r="B9" s="24">
+        <v>0</v>
+      </c>
+      <c r="C9" s="24">
         <v>19</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="24">
         <v>1</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="24">
         <v>12</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="24">
         <v>1</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="24">
         <v>1</v>
       </c>
       <c r="I9">
@@ -3460,39 +3418,39 @@
       <c r="CN9" s="4">
         <v>7</v>
       </c>
-      <c r="CO9" s="38">
+      <c r="CO9" s="36">
         <v>21</v>
       </c>
-      <c r="CP9" s="38">
-        <v>0</v>
-      </c>
-      <c r="CQ9" s="26">
+      <c r="CP9" s="36">
+        <v>0</v>
+      </c>
+      <c r="CQ9" s="24">
         <v>2.9</v>
       </c>
-      <c r="CR9" s="26">
+      <c r="CR9" s="24">
         <v>3.2</v>
       </c>
       <c r="CS9" s="4">
         <v>3.4</v>
       </c>
-      <c r="CT9" s="26">
+      <c r="CT9" s="24">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:98" ht="15.95">
-      <c r="A10" s="26">
+    <row r="10" spans="1:98" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="24">
         <v>107</v>
       </c>
-      <c r="B10" s="26">
-        <v>0</v>
-      </c>
-      <c r="C10" s="26">
+      <c r="B10" s="24">
+        <v>0</v>
+      </c>
+      <c r="C10" s="24">
         <v>23</v>
       </c>
-      <c r="D10" s="26">
-        <v>0</v>
-      </c>
-      <c r="E10" s="26">
+      <c r="D10" s="24">
+        <v>0</v>
+      </c>
+      <c r="E10" s="24">
         <v>16</v>
       </c>
       <c r="F10" s="1">
@@ -3501,7 +3459,7 @@
       <c r="G10" s="1">
         <v>0</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="24">
         <v>0</v>
       </c>
       <c r="I10">
@@ -3762,48 +3720,48 @@
       <c r="CN10" s="4">
         <v>4</v>
       </c>
-      <c r="CO10" s="38">
+      <c r="CO10" s="36">
         <v>16</v>
       </c>
-      <c r="CP10" s="38">
-        <v>0</v>
-      </c>
-      <c r="CQ10" s="26">
+      <c r="CP10" s="36">
+        <v>0</v>
+      </c>
+      <c r="CQ10" s="24">
         <v>3</v>
       </c>
-      <c r="CR10" s="26">
+      <c r="CR10" s="24">
         <v>3.6000000000000005</v>
       </c>
       <c r="CS10" s="4">
         <v>4.9000000000000004</v>
       </c>
-      <c r="CT10" s="26">
+      <c r="CT10" s="24">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:98" ht="15.95">
-      <c r="A11" s="26">
+    <row r="11" spans="1:98" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="24">
         <v>108</v>
       </c>
-      <c r="B11" s="26">
-        <v>0</v>
-      </c>
-      <c r="C11" s="26">
+      <c r="B11" s="24">
+        <v>0</v>
+      </c>
+      <c r="C11" s="24">
         <v>23</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="24">
         <v>1</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="24">
         <v>16</v>
       </c>
-      <c r="F11" s="26">
-        <v>0</v>
-      </c>
-      <c r="G11" s="26">
+      <c r="F11" s="24">
+        <v>0</v>
+      </c>
+      <c r="G11" s="24">
         <v>1</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="24">
         <v>0</v>
       </c>
       <c r="I11">
@@ -4064,48 +4022,48 @@
       <c r="CN11" s="4">
         <v>3</v>
       </c>
-      <c r="CO11" s="38">
+      <c r="CO11" s="36">
         <v>22</v>
       </c>
-      <c r="CP11" s="38">
-        <v>0</v>
-      </c>
-      <c r="CQ11" s="26">
+      <c r="CP11" s="36">
+        <v>0</v>
+      </c>
+      <c r="CQ11" s="24">
         <v>2.2999999999999998</v>
       </c>
-      <c r="CR11" s="26">
+      <c r="CR11" s="24">
         <v>1.6500000000000001</v>
       </c>
       <c r="CS11" s="4">
         <v>5</v>
       </c>
-      <c r="CT11" s="26">
+      <c r="CT11" s="24">
         <v>4.8</v>
       </c>
     </row>
-    <row r="12" spans="1:98" ht="15.95">
-      <c r="A12" s="26">
+    <row r="12" spans="1:98" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="24">
         <v>109</v>
       </c>
-      <c r="B12" s="26">
-        <v>0</v>
-      </c>
-      <c r="C12" s="26">
+      <c r="B12" s="24">
+        <v>0</v>
+      </c>
+      <c r="C12" s="24">
         <v>20</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="24">
         <v>1</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="24">
         <v>12</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="24">
         <v>1</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
       </c>
-      <c r="H12" s="26">
+      <c r="H12" s="24">
         <v>0</v>
       </c>
       <c r="I12">
@@ -4366,39 +4324,39 @@
       <c r="CN12" s="4">
         <v>18</v>
       </c>
-      <c r="CO12" s="38">
+      <c r="CO12" s="36">
         <v>16</v>
       </c>
-      <c r="CP12" s="38">
-        <v>0</v>
-      </c>
-      <c r="CQ12" s="26">
+      <c r="CP12" s="36">
+        <v>0</v>
+      </c>
+      <c r="CQ12" s="24">
         <v>2.85</v>
       </c>
-      <c r="CR12" s="26">
+      <c r="CR12" s="24">
         <v>3.3</v>
       </c>
       <c r="CS12" s="4">
         <v>3.3</v>
       </c>
-      <c r="CT12" s="26">
+      <c r="CT12" s="24">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:98" ht="15.95">
-      <c r="A13" s="26">
+    <row r="13" spans="1:98" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="24">
         <v>110</v>
       </c>
-      <c r="B13" s="26">
-        <v>0</v>
-      </c>
-      <c r="C13" s="26">
+      <c r="B13" s="24">
+        <v>0</v>
+      </c>
+      <c r="C13" s="24">
         <v>24</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="24">
         <v>1</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="24">
         <v>16</v>
       </c>
       <c r="F13" s="1">
@@ -4407,7 +4365,7 @@
       <c r="G13" s="1">
         <v>0</v>
       </c>
-      <c r="H13" s="26">
+      <c r="H13" s="24">
         <v>0</v>
       </c>
       <c r="I13">
@@ -4668,39 +4626,39 @@
       <c r="CN13" s="4">
         <v>12</v>
       </c>
-      <c r="CO13" s="38">
+      <c r="CO13" s="36">
         <v>22</v>
       </c>
-      <c r="CP13" s="38">
+      <c r="CP13" s="36">
         <v>1</v>
       </c>
-      <c r="CQ13" s="26">
+      <c r="CQ13" s="24">
         <v>1.7</v>
       </c>
-      <c r="CR13" s="26">
+      <c r="CR13" s="24">
         <v>3.05</v>
       </c>
       <c r="CS13" s="4">
         <v>4.5999999999999996</v>
       </c>
-      <c r="CT13" s="26">
+      <c r="CT13" s="24">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:98" ht="15.95">
-      <c r="A14" s="26">
+    <row r="14" spans="1:98" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="24">
         <v>111</v>
       </c>
-      <c r="B14" s="26">
-        <v>0</v>
-      </c>
-      <c r="C14" s="26">
+      <c r="B14" s="24">
+        <v>0</v>
+      </c>
+      <c r="C14" s="24">
         <v>30</v>
       </c>
-      <c r="D14" s="26">
-        <v>0</v>
-      </c>
-      <c r="E14" s="26">
+      <c r="D14" s="24">
+        <v>0</v>
+      </c>
+      <c r="E14" s="24">
         <v>18</v>
       </c>
       <c r="F14" s="1">
@@ -4709,7 +4667,7 @@
       <c r="G14" s="1">
         <v>0</v>
       </c>
-      <c r="H14" s="26">
+      <c r="H14" s="24">
         <v>0</v>
       </c>
       <c r="I14">
@@ -4970,48 +4928,48 @@
       <c r="CN14" s="4">
         <v>14</v>
       </c>
-      <c r="CO14" s="38">
+      <c r="CO14" s="36">
         <v>16</v>
       </c>
-      <c r="CP14" s="38">
+      <c r="CP14" s="36">
         <v>1</v>
       </c>
-      <c r="CQ14" s="26">
+      <c r="CQ14" s="24">
         <v>2.25</v>
       </c>
-      <c r="CR14" s="26">
+      <c r="CR14" s="24">
         <v>2.4</v>
       </c>
       <c r="CS14" s="4">
         <v>4.8</v>
       </c>
-      <c r="CT14" s="26">
+      <c r="CT14" s="24">
         <v>4.2</v>
       </c>
     </row>
-    <row r="15" spans="1:98" ht="15.95">
-      <c r="A15" s="26">
+    <row r="15" spans="1:98" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="24">
         <v>112</v>
       </c>
-      <c r="B15" s="26">
-        <v>0</v>
-      </c>
-      <c r="C15" s="26">
+      <c r="B15" s="24">
+        <v>0</v>
+      </c>
+      <c r="C15" s="24">
         <v>30</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D15" s="24">
         <v>1</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E15" s="24">
         <v>16</v>
       </c>
-      <c r="F15" s="26">
+      <c r="F15" s="24">
         <v>1</v>
       </c>
-      <c r="G15" s="26">
+      <c r="G15" s="24">
         <v>1</v>
       </c>
-      <c r="H15" s="26">
+      <c r="H15" s="24">
         <v>0</v>
       </c>
       <c r="I15">
@@ -5272,39 +5230,39 @@
       <c r="CN15" s="4">
         <v>9</v>
       </c>
-      <c r="CO15" s="38">
+      <c r="CO15" s="36">
         <v>15</v>
       </c>
-      <c r="CP15" s="38">
+      <c r="CP15" s="36">
         <v>3</v>
       </c>
-      <c r="CQ15" s="26">
+      <c r="CQ15" s="24">
         <v>3.6</v>
       </c>
-      <c r="CR15" s="26">
+      <c r="CR15" s="24">
         <v>4.6499999999999995</v>
       </c>
       <c r="CS15" s="4">
         <v>5</v>
       </c>
-      <c r="CT15" s="26">
+      <c r="CT15" s="24">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:98" ht="15.95">
-      <c r="A16" s="26">
+    <row r="16" spans="1:98" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="24">
         <v>113</v>
       </c>
-      <c r="B16" s="26">
-        <v>0</v>
-      </c>
-      <c r="C16" s="26">
+      <c r="B16" s="24">
+        <v>0</v>
+      </c>
+      <c r="C16" s="24">
         <v>22</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="24">
         <v>1</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="24">
         <v>12</v>
       </c>
       <c r="F16" s="1">
@@ -5313,7 +5271,7 @@
       <c r="G16" s="1">
         <v>0</v>
       </c>
-      <c r="H16" s="26">
+      <c r="H16" s="24">
         <v>0</v>
       </c>
       <c r="I16">
@@ -5574,48 +5532,48 @@
       <c r="CN16" s="4">
         <v>6</v>
       </c>
-      <c r="CO16" s="38">
+      <c r="CO16" s="36">
         <v>24</v>
       </c>
-      <c r="CP16" s="38">
+      <c r="CP16" s="36">
         <v>1</v>
       </c>
-      <c r="CQ16" s="26">
+      <c r="CQ16" s="24">
         <v>3.9499999999999997</v>
       </c>
-      <c r="CR16" s="26">
+      <c r="CR16" s="24">
         <v>4.6999999999999993</v>
       </c>
       <c r="CS16" s="4">
         <v>4.9000000000000004</v>
       </c>
-      <c r="CT16" s="26">
+      <c r="CT16" s="24">
         <v>4.8</v>
       </c>
     </row>
-    <row r="17" spans="1:98" ht="15.95">
-      <c r="A17" s="26">
+    <row r="17" spans="1:98" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="24">
         <v>114</v>
       </c>
-      <c r="B17" s="26">
-        <v>0</v>
-      </c>
-      <c r="C17" s="26">
+      <c r="B17" s="24">
+        <v>0</v>
+      </c>
+      <c r="C17" s="24">
         <v>28</v>
       </c>
-      <c r="D17" s="26">
-        <v>0</v>
-      </c>
-      <c r="E17" s="26">
+      <c r="D17" s="24">
+        <v>0</v>
+      </c>
+      <c r="E17" s="24">
         <v>18</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="24">
         <v>1</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="24">
         <v>1</v>
       </c>
-      <c r="H17" s="26">
+      <c r="H17" s="24">
         <v>1</v>
       </c>
       <c r="I17">
@@ -5876,48 +5834,48 @@
       <c r="CN17" s="4">
         <v>19</v>
       </c>
-      <c r="CO17" s="38">
+      <c r="CO17" s="36">
         <v>20</v>
       </c>
-      <c r="CP17" s="38">
+      <c r="CP17" s="36">
         <v>3</v>
       </c>
-      <c r="CQ17" s="26">
+      <c r="CQ17" s="24">
         <v>2.3000000000000003</v>
       </c>
-      <c r="CR17" s="26">
+      <c r="CR17" s="24">
         <v>2.6500000000000004</v>
       </c>
       <c r="CS17" s="4">
         <v>4.5999999999999996</v>
       </c>
-      <c r="CT17" s="26">
+      <c r="CT17" s="24">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:98" ht="15.95">
-      <c r="A18" s="26">
+    <row r="18" spans="1:98" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="24">
         <v>115</v>
       </c>
-      <c r="B18" s="26">
-        <v>0</v>
-      </c>
-      <c r="C18" s="26">
+      <c r="B18" s="24">
+        <v>0</v>
+      </c>
+      <c r="C18" s="24">
         <v>20</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="24">
         <v>1</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E18" s="24">
         <v>12</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F18" s="24">
         <v>1</v>
       </c>
-      <c r="G18" s="26">
-        <v>0</v>
-      </c>
-      <c r="H18" s="26">
+      <c r="G18" s="24">
+        <v>0</v>
+      </c>
+      <c r="H18" s="24">
         <v>1</v>
       </c>
       <c r="I18">
@@ -6178,39 +6136,39 @@
       <c r="CN18" s="4">
         <v>25</v>
       </c>
-      <c r="CO18" s="38">
+      <c r="CO18" s="36">
         <v>15</v>
       </c>
-      <c r="CP18" s="38">
+      <c r="CP18" s="36">
         <v>1</v>
       </c>
-      <c r="CQ18" s="26">
+      <c r="CQ18" s="24">
         <v>2.1999999999999997</v>
       </c>
-      <c r="CR18" s="26">
+      <c r="CR18" s="24">
         <v>2.7</v>
       </c>
       <c r="CS18" s="4">
         <v>2.5</v>
       </c>
-      <c r="CT18" s="26">
+      <c r="CT18" s="24">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:98" ht="15.95">
-      <c r="A19" s="26">
+    <row r="19" spans="1:98" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="24">
         <v>116</v>
       </c>
-      <c r="B19" s="26">
-        <v>0</v>
-      </c>
-      <c r="C19" s="26">
+      <c r="B19" s="24">
+        <v>0</v>
+      </c>
+      <c r="C19" s="24">
         <v>22</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="24">
         <v>1</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="24">
         <v>16</v>
       </c>
       <c r="F19" s="1">
@@ -6219,7 +6177,7 @@
       <c r="G19" s="1">
         <v>0</v>
       </c>
-      <c r="H19" s="26">
+      <c r="H19" s="24">
         <v>0</v>
       </c>
       <c r="I19">
@@ -6480,39 +6438,39 @@
       <c r="CN19" s="4">
         <v>17</v>
       </c>
-      <c r="CO19" s="38">
+      <c r="CO19" s="36">
         <v>23</v>
       </c>
-      <c r="CP19" s="38">
+      <c r="CP19" s="36">
         <v>2</v>
       </c>
-      <c r="CQ19" s="26">
+      <c r="CQ19" s="24">
         <v>3.4249999999999998</v>
       </c>
-      <c r="CR19" s="26">
+      <c r="CR19" s="24">
         <v>3.5999999999999996</v>
       </c>
       <c r="CS19" s="4">
         <v>4.8</v>
       </c>
-      <c r="CT19" s="26">
+      <c r="CT19" s="24">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:98" ht="15.95">
-      <c r="A20" s="26">
+    <row r="20" spans="1:98" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="24">
         <v>117</v>
       </c>
-      <c r="B20" s="26">
-        <v>0</v>
-      </c>
-      <c r="C20" s="26">
+      <c r="B20" s="24">
+        <v>0</v>
+      </c>
+      <c r="C20" s="24">
         <v>21</v>
       </c>
-      <c r="D20" s="26">
+      <c r="D20" s="24">
         <v>1</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E20" s="24">
         <v>12</v>
       </c>
       <c r="F20" s="1">
@@ -6521,7 +6479,7 @@
       <c r="G20" s="1">
         <v>0</v>
       </c>
-      <c r="H20" s="26">
+      <c r="H20" s="24">
         <v>1</v>
       </c>
       <c r="I20">
@@ -6782,48 +6740,48 @@
       <c r="CN20" s="4">
         <v>5</v>
       </c>
-      <c r="CO20" s="38">
+      <c r="CO20" s="36">
         <v>15</v>
       </c>
-      <c r="CP20" s="38">
-        <v>0</v>
-      </c>
-      <c r="CQ20" s="26">
+      <c r="CP20" s="36">
+        <v>0</v>
+      </c>
+      <c r="CQ20" s="24">
         <v>2.15</v>
       </c>
-      <c r="CR20" s="26">
+      <c r="CR20" s="24">
         <v>3.55</v>
       </c>
       <c r="CS20" s="4">
         <v>5</v>
       </c>
-      <c r="CT20" s="26">
+      <c r="CT20" s="24">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:98" ht="15.95">
-      <c r="A21" s="26">
+    <row r="21" spans="1:98" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="24">
         <v>118</v>
       </c>
-      <c r="B21" s="26">
-        <v>0</v>
-      </c>
-      <c r="C21" s="26">
+      <c r="B21" s="24">
+        <v>0</v>
+      </c>
+      <c r="C21" s="24">
         <v>21</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D21" s="24">
         <v>1</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E21" s="24">
         <v>12</v>
       </c>
-      <c r="F21" s="26">
+      <c r="F21" s="24">
         <v>1</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
       </c>
-      <c r="H21" s="26">
+      <c r="H21" s="24">
         <v>0</v>
       </c>
       <c r="I21">
@@ -7084,48 +7042,48 @@
       <c r="CN21" s="4">
         <v>10</v>
       </c>
-      <c r="CO21" s="38">
+      <c r="CO21" s="36">
         <v>19</v>
       </c>
-      <c r="CP21" s="38">
-        <v>0</v>
-      </c>
-      <c r="CQ21" s="26">
+      <c r="CP21" s="36">
+        <v>0</v>
+      </c>
+      <c r="CQ21" s="24">
         <v>2</v>
       </c>
-      <c r="CR21" s="26">
+      <c r="CR21" s="24">
         <v>2.2000000000000002</v>
       </c>
       <c r="CS21" s="4">
         <v>1.7</v>
       </c>
-      <c r="CT21" s="26">
+      <c r="CT21" s="24">
         <v>3.4</v>
       </c>
     </row>
-    <row r="22" spans="1:98" ht="15.95">
-      <c r="A22" s="26">
+    <row r="22" spans="1:98" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="24">
         <v>119</v>
       </c>
-      <c r="B22" s="26">
-        <v>0</v>
-      </c>
-      <c r="C22" s="26">
+      <c r="B22" s="24">
+        <v>0</v>
+      </c>
+      <c r="C22" s="24">
         <v>19</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D22" s="24">
         <v>1</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E22" s="24">
         <v>12</v>
       </c>
-      <c r="F22" s="26">
+      <c r="F22" s="24">
         <v>1</v>
       </c>
-      <c r="G22" s="26">
-        <v>0</v>
-      </c>
-      <c r="H22" s="26">
+      <c r="G22" s="24">
+        <v>0</v>
+      </c>
+      <c r="H22" s="24">
         <v>1</v>
       </c>
       <c r="I22">
@@ -7386,48 +7344,48 @@
       <c r="CN22" s="4">
         <v>15</v>
       </c>
-      <c r="CO22" s="38">
+      <c r="CO22" s="36">
         <v>16</v>
       </c>
-      <c r="CP22" s="38">
-        <v>0</v>
-      </c>
-      <c r="CQ22" s="26">
+      <c r="CP22" s="36">
+        <v>0</v>
+      </c>
+      <c r="CQ22" s="24">
         <v>2.6750000000000003</v>
       </c>
-      <c r="CR22" s="26">
+      <c r="CR22" s="24">
         <v>3.85</v>
       </c>
       <c r="CS22" s="4">
         <v>2.8</v>
       </c>
-      <c r="CT22" s="26">
+      <c r="CT22" s="24">
         <v>3.6</v>
       </c>
     </row>
-    <row r="23" spans="1:98" ht="15.95">
-      <c r="A23" s="26">
+    <row r="23" spans="1:98" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="24">
         <v>120</v>
       </c>
-      <c r="B23" s="26">
-        <v>0</v>
-      </c>
-      <c r="C23" s="26">
+      <c r="B23" s="24">
+        <v>0</v>
+      </c>
+      <c r="C23" s="24">
         <v>20</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D23" s="24">
         <v>1</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E23" s="24">
         <v>12</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F23" s="24">
         <v>1</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
       </c>
-      <c r="H23" s="26">
+      <c r="H23" s="24">
         <v>0</v>
       </c>
       <c r="I23">
@@ -7688,48 +7646,48 @@
       <c r="CN23" s="4">
         <v>9</v>
       </c>
-      <c r="CO23" s="38">
+      <c r="CO23" s="36">
         <v>13</v>
       </c>
-      <c r="CP23" s="38">
+      <c r="CP23" s="36">
         <v>3</v>
       </c>
-      <c r="CQ23" s="26">
+      <c r="CQ23" s="24">
         <v>1.9000000000000001</v>
       </c>
-      <c r="CR23" s="26">
+      <c r="CR23" s="24">
         <v>1.9</v>
       </c>
       <c r="CS23" s="4">
         <v>4.5999999999999996</v>
       </c>
-      <c r="CT23" s="26">
+      <c r="CT23" s="24">
         <v>4.8</v>
       </c>
     </row>
-    <row r="24" spans="1:98" ht="15.95">
-      <c r="A24" s="26">
+    <row r="24" spans="1:98" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="24">
         <v>121</v>
       </c>
-      <c r="B24" s="26">
-        <v>0</v>
-      </c>
-      <c r="C24" s="26">
+      <c r="B24" s="24">
+        <v>0</v>
+      </c>
+      <c r="C24" s="24">
         <v>22</v>
       </c>
-      <c r="D24" s="26">
-        <v>0</v>
-      </c>
-      <c r="E24" s="26">
+      <c r="D24" s="24">
+        <v>0</v>
+      </c>
+      <c r="E24" s="24">
         <v>16</v>
       </c>
-      <c r="F24" s="26">
+      <c r="F24" s="24">
         <v>1</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
       </c>
-      <c r="H24" s="26">
+      <c r="H24" s="24">
         <v>0</v>
       </c>
       <c r="I24">
@@ -7990,48 +7948,48 @@
       <c r="CN24" s="4">
         <v>16</v>
       </c>
-      <c r="CO24" s="38">
+      <c r="CO24" s="36">
         <v>13</v>
       </c>
-      <c r="CP24" s="38">
+      <c r="CP24" s="36">
         <v>3</v>
       </c>
-      <c r="CQ24" s="26">
+      <c r="CQ24" s="24">
         <v>3.95</v>
       </c>
-      <c r="CR24" s="26">
+      <c r="CR24" s="24">
         <v>3.0000000000000004</v>
       </c>
       <c r="CS24" s="4">
         <v>4.0999999999999996</v>
       </c>
-      <c r="CT24" s="26">
+      <c r="CT24" s="24">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:98" ht="15.95">
-      <c r="A25" s="26">
+    <row r="25" spans="1:98" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="24">
         <v>122</v>
       </c>
-      <c r="B25" s="26">
-        <v>0</v>
-      </c>
-      <c r="C25" s="26">
+      <c r="B25" s="24">
+        <v>0</v>
+      </c>
+      <c r="C25" s="24">
         <v>19</v>
       </c>
-      <c r="D25" s="26">
-        <v>0</v>
-      </c>
-      <c r="E25" s="26">
+      <c r="D25" s="24">
+        <v>0</v>
+      </c>
+      <c r="E25" s="24">
         <v>12</v>
       </c>
-      <c r="F25" s="26">
+      <c r="F25" s="24">
         <v>1</v>
       </c>
       <c r="G25" s="1">
         <v>0</v>
       </c>
-      <c r="H25" s="26">
+      <c r="H25" s="24">
         <v>0</v>
       </c>
       <c r="I25">
@@ -8292,48 +8250,48 @@
       <c r="CN25" s="4">
         <v>14</v>
       </c>
-      <c r="CO25" s="38">
+      <c r="CO25" s="36">
         <v>12</v>
       </c>
-      <c r="CP25" s="38">
-        <v>0</v>
-      </c>
-      <c r="CQ25" s="26">
+      <c r="CP25" s="36">
+        <v>0</v>
+      </c>
+      <c r="CQ25" s="24">
         <v>2.0750000000000002</v>
       </c>
-      <c r="CR25" s="26">
+      <c r="CR25" s="24">
         <v>2.2000000000000002</v>
       </c>
       <c r="CS25" s="4">
         <v>3.1</v>
       </c>
-      <c r="CT25" s="26">
+      <c r="CT25" s="24">
         <v>4.2</v>
       </c>
     </row>
-    <row r="26" spans="1:98" ht="15.95">
-      <c r="A26" s="26">
+    <row r="26" spans="1:98" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="24">
         <v>123</v>
       </c>
-      <c r="B26" s="26">
-        <v>0</v>
-      </c>
-      <c r="C26" s="26">
+      <c r="B26" s="24">
+        <v>0</v>
+      </c>
+      <c r="C26" s="24">
         <v>19</v>
       </c>
-      <c r="D26" s="26">
+      <c r="D26" s="24">
         <v>1</v>
       </c>
-      <c r="E26" s="26">
+      <c r="E26" s="24">
         <v>12</v>
       </c>
-      <c r="F26" s="26">
+      <c r="F26" s="24">
         <v>1</v>
       </c>
       <c r="G26" s="1">
         <v>0</v>
       </c>
-      <c r="H26" s="26">
+      <c r="H26" s="24">
         <v>0</v>
       </c>
       <c r="I26">
@@ -8594,48 +8552,48 @@
       <c r="CN26" s="4">
         <v>9</v>
       </c>
-      <c r="CO26" s="38">
+      <c r="CO26" s="36">
         <v>23</v>
       </c>
-      <c r="CP26" s="38">
-        <v>0</v>
-      </c>
-      <c r="CQ26" s="26">
+      <c r="CP26" s="36">
+        <v>0</v>
+      </c>
+      <c r="CQ26" s="24">
         <v>3.875</v>
       </c>
-      <c r="CR26" s="26">
+      <c r="CR26" s="24">
         <v>4.4000000000000004</v>
       </c>
       <c r="CS26" s="4">
         <v>3.4</v>
       </c>
-      <c r="CT26" s="26">
+      <c r="CT26" s="24">
         <v>3.8</v>
       </c>
     </row>
-    <row r="27" spans="1:98" ht="15.95">
-      <c r="A27" s="26">
+    <row r="27" spans="1:98" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="24">
         <v>124</v>
       </c>
-      <c r="B27" s="26">
-        <v>0</v>
-      </c>
-      <c r="C27" s="26">
+      <c r="B27" s="24">
+        <v>0</v>
+      </c>
+      <c r="C27" s="24">
         <v>19</v>
       </c>
-      <c r="D27" s="26">
+      <c r="D27" s="24">
         <v>1</v>
       </c>
-      <c r="E27" s="26">
+      <c r="E27" s="24">
         <v>12</v>
       </c>
-      <c r="F27" s="26">
+      <c r="F27" s="24">
         <v>1</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
       </c>
-      <c r="H27" s="26">
+      <c r="H27" s="24">
         <v>0</v>
       </c>
       <c r="I27">
@@ -8896,39 +8854,39 @@
       <c r="CN27" s="4">
         <v>2</v>
       </c>
-      <c r="CO27" s="38">
+      <c r="CO27" s="36">
         <v>21</v>
       </c>
-      <c r="CP27" s="38">
-        <v>0</v>
-      </c>
-      <c r="CQ27" s="26">
+      <c r="CP27" s="36">
+        <v>0</v>
+      </c>
+      <c r="CQ27" s="24">
         <v>3.2750000000000004</v>
       </c>
-      <c r="CR27" s="26">
+      <c r="CR27" s="24">
         <v>2.4</v>
       </c>
       <c r="CS27" s="4">
         <v>4.9000000000000004</v>
       </c>
-      <c r="CT27" s="26">
+      <c r="CT27" s="24">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:98" ht="15.95">
-      <c r="A28" s="26">
+    <row r="28" spans="1:98" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="24">
         <v>200</v>
       </c>
-      <c r="B28" s="26">
+      <c r="B28" s="24">
         <v>1</v>
       </c>
       <c r="C28" s="1">
         <v>78</v>
       </c>
-      <c r="D28" s="26">
+      <c r="D28" s="24">
         <v>1</v>
       </c>
-      <c r="E28" s="26">
+      <c r="E28" s="24">
         <v>16</v>
       </c>
       <c r="F28" s="1">
@@ -8937,7 +8895,7 @@
       <c r="G28" s="1">
         <v>0</v>
       </c>
-      <c r="H28" s="26">
+      <c r="H28" s="24">
         <v>0</v>
       </c>
       <c r="I28">
@@ -9198,39 +9156,39 @@
       <c r="CN28" s="4">
         <v>4</v>
       </c>
-      <c r="CO28" s="38">
+      <c r="CO28" s="36">
         <v>18</v>
       </c>
-      <c r="CP28" s="38">
+      <c r="CP28" s="36">
         <v>3</v>
       </c>
-      <c r="CQ28" s="26">
+      <c r="CQ28" s="24">
         <v>2.4750000000000001</v>
       </c>
-      <c r="CR28" s="26">
+      <c r="CR28" s="24">
         <v>2.8499999999999996</v>
       </c>
       <c r="CS28" s="4">
         <v>4.8</v>
       </c>
-      <c r="CT28" s="26">
+      <c r="CT28" s="24">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:98" ht="15.95">
-      <c r="A29" s="26">
+    <row r="29" spans="1:98" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="24">
         <v>201</v>
       </c>
-      <c r="B29" s="26">
+      <c r="B29" s="24">
         <v>1</v>
       </c>
       <c r="C29" s="1">
         <v>78</v>
       </c>
-      <c r="D29" s="26">
+      <c r="D29" s="24">
         <v>1</v>
       </c>
-      <c r="E29" s="26">
+      <c r="E29" s="24">
         <v>20</v>
       </c>
       <c r="F29" s="1">
@@ -9239,7 +9197,7 @@
       <c r="G29" s="1">
         <v>0</v>
       </c>
-      <c r="H29" s="26">
+      <c r="H29" s="24">
         <v>0</v>
       </c>
       <c r="I29">
@@ -9500,39 +9458,39 @@
       <c r="CN29" s="4">
         <v>1</v>
       </c>
-      <c r="CO29" s="38">
+      <c r="CO29" s="36">
         <v>20</v>
       </c>
-      <c r="CP29" s="38">
+      <c r="CP29" s="36">
         <v>4</v>
       </c>
-      <c r="CQ29" s="26">
+      <c r="CQ29" s="24">
         <v>1.875</v>
       </c>
-      <c r="CR29" s="26">
+      <c r="CR29" s="24">
         <v>2.5499999999999998</v>
       </c>
       <c r="CS29" s="4">
         <v>5</v>
       </c>
-      <c r="CT29" s="26">
+      <c r="CT29" s="24">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:98" ht="15.95">
-      <c r="A30" s="26">
+    <row r="30" spans="1:98" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="24">
         <v>202</v>
       </c>
-      <c r="B30" s="26">
+      <c r="B30" s="24">
         <v>1</v>
       </c>
       <c r="C30" s="1">
         <v>79</v>
       </c>
-      <c r="D30" s="26">
+      <c r="D30" s="24">
         <v>1</v>
       </c>
-      <c r="E30" s="26">
+      <c r="E30" s="24">
         <v>16</v>
       </c>
       <c r="F30" s="1">
@@ -9541,7 +9499,7 @@
       <c r="G30" s="1">
         <v>0</v>
       </c>
-      <c r="H30" s="26">
+      <c r="H30" s="24">
         <v>0</v>
       </c>
       <c r="I30">
@@ -9802,39 +9760,39 @@
       <c r="CN30" s="4">
         <v>5</v>
       </c>
-      <c r="CO30" s="38">
+      <c r="CO30" s="36">
         <v>15</v>
       </c>
-      <c r="CP30" s="38">
+      <c r="CP30" s="36">
         <v>3</v>
       </c>
-      <c r="CQ30" s="26">
+      <c r="CQ30" s="24">
         <v>2.5000000000000004</v>
       </c>
-      <c r="CR30" s="26">
+      <c r="CR30" s="24">
         <v>3.0999999999999996</v>
       </c>
       <c r="CS30" s="4">
         <v>5</v>
       </c>
-      <c r="CT30" s="26">
+      <c r="CT30" s="24">
         <v>4.2</v>
       </c>
     </row>
-    <row r="31" spans="1:98" ht="15.95">
-      <c r="A31" s="26">
+    <row r="31" spans="1:98" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="24">
         <v>203</v>
       </c>
-      <c r="B31" s="26">
+      <c r="B31" s="24">
         <v>1</v>
       </c>
       <c r="C31" s="1">
         <v>79</v>
       </c>
-      <c r="D31" s="26">
-        <v>0</v>
-      </c>
-      <c r="E31" s="26">
+      <c r="D31" s="24">
+        <v>0</v>
+      </c>
+      <c r="E31" s="24">
         <v>18</v>
       </c>
       <c r="F31" s="1">
@@ -9843,7 +9801,7 @@
       <c r="G31" s="1">
         <v>0</v>
       </c>
-      <c r="H31" s="26">
+      <c r="H31" s="24">
         <v>0</v>
       </c>
       <c r="I31">
@@ -10104,39 +10062,39 @@
       <c r="CN31" s="4">
         <v>0</v>
       </c>
-      <c r="CO31" s="38">
+      <c r="CO31" s="36">
         <v>11</v>
       </c>
-      <c r="CP31" s="38">
+      <c r="CP31" s="36">
         <v>3</v>
       </c>
-      <c r="CQ31" s="26">
+      <c r="CQ31" s="24">
         <v>1</v>
       </c>
-      <c r="CR31" s="26">
+      <c r="CR31" s="24">
         <v>1.8499999999999999</v>
       </c>
       <c r="CS31" s="4">
         <v>4.2</v>
       </c>
-      <c r="CT31" s="26">
+      <c r="CT31" s="24">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:98" ht="15.95">
-      <c r="A32" s="26">
+    <row r="32" spans="1:98" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="24">
         <v>206</v>
       </c>
-      <c r="B32" s="26">
+      <c r="B32" s="24">
         <v>1</v>
       </c>
       <c r="C32" s="1">
         <v>81</v>
       </c>
-      <c r="D32" s="26">
+      <c r="D32" s="24">
         <v>1</v>
       </c>
-      <c r="E32" s="26">
+      <c r="E32" s="24">
         <v>16</v>
       </c>
       <c r="F32" s="1">
@@ -10145,7 +10103,7 @@
       <c r="G32" s="1">
         <v>0</v>
       </c>
-      <c r="H32" s="26">
+      <c r="H32" s="24">
         <v>0</v>
       </c>
       <c r="I32">
@@ -10406,39 +10364,39 @@
       <c r="CN32" s="4">
         <v>4</v>
       </c>
-      <c r="CO32" s="38">
+      <c r="CO32" s="36">
         <v>14</v>
       </c>
-      <c r="CP32" s="38">
-        <v>0</v>
-      </c>
-      <c r="CQ32" s="26">
+      <c r="CP32" s="36">
+        <v>0</v>
+      </c>
+      <c r="CQ32" s="24">
         <v>1.1000000000000001</v>
       </c>
-      <c r="CR32" s="26">
+      <c r="CR32" s="24">
         <v>1.6</v>
       </c>
       <c r="CS32" s="4">
         <v>5</v>
       </c>
-      <c r="CT32" s="26">
+      <c r="CT32" s="24">
         <v>4.2</v>
       </c>
     </row>
-    <row r="33" spans="1:98" ht="15.95">
-      <c r="A33" s="26">
+    <row r="33" spans="1:98" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="24">
         <v>208</v>
       </c>
-      <c r="B33" s="26">
+      <c r="B33" s="24">
         <v>1</v>
       </c>
       <c r="C33" s="1">
         <v>64</v>
       </c>
-      <c r="D33" s="26">
-        <v>0</v>
-      </c>
-      <c r="E33" s="26">
+      <c r="D33" s="24">
+        <v>0</v>
+      </c>
+      <c r="E33" s="24">
         <v>16</v>
       </c>
       <c r="F33" s="1">
@@ -10447,7 +10405,7 @@
       <c r="G33" s="1">
         <v>0</v>
       </c>
-      <c r="H33" s="26">
+      <c r="H33" s="24">
         <v>0</v>
       </c>
       <c r="I33">
@@ -10708,39 +10666,39 @@
       <c r="CN33" s="4">
         <v>26</v>
       </c>
-      <c r="CO33" s="38">
+      <c r="CO33" s="36">
         <v>10</v>
       </c>
-      <c r="CP33" s="38">
-        <v>0</v>
-      </c>
-      <c r="CQ33" s="26">
+      <c r="CP33" s="36">
+        <v>0</v>
+      </c>
+      <c r="CQ33" s="24">
         <v>2.15</v>
       </c>
-      <c r="CR33" s="26">
+      <c r="CR33" s="24">
         <v>2</v>
       </c>
       <c r="CS33" s="4">
         <v>4.3</v>
       </c>
-      <c r="CT33" s="26">
+      <c r="CT33" s="24">
         <v>3.4</v>
       </c>
     </row>
-    <row r="34" spans="1:98" ht="15.95">
-      <c r="A34" s="26">
+    <row r="34" spans="1:98" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="24">
         <v>212</v>
       </c>
-      <c r="B34" s="26">
+      <c r="B34" s="24">
         <v>1</v>
       </c>
       <c r="C34" s="1">
         <v>78</v>
       </c>
-      <c r="D34" s="26">
+      <c r="D34" s="24">
         <v>1</v>
       </c>
-      <c r="E34" s="26">
+      <c r="E34" s="24">
         <v>20</v>
       </c>
       <c r="F34" s="1">
@@ -10749,7 +10707,7 @@
       <c r="G34" s="1">
         <v>0</v>
       </c>
-      <c r="H34" s="26">
+      <c r="H34" s="24">
         <v>0</v>
       </c>
       <c r="I34">
@@ -11010,39 +10968,39 @@
       <c r="CN34" s="4">
         <v>6</v>
       </c>
-      <c r="CO34" s="38">
+      <c r="CO34" s="36">
         <v>22</v>
       </c>
-      <c r="CP34" s="38">
+      <c r="CP34" s="36">
         <v>3</v>
       </c>
-      <c r="CQ34" s="26">
+      <c r="CQ34" s="24">
         <v>1.8499999999999999</v>
       </c>
-      <c r="CR34" s="26">
+      <c r="CR34" s="24">
         <v>3.4499999999999997</v>
       </c>
       <c r="CS34" s="4">
         <v>4.5999999999999996</v>
       </c>
-      <c r="CT34" s="26">
+      <c r="CT34" s="24">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="35" spans="1:98" ht="15.95">
-      <c r="A35" s="26">
+    <row r="35" spans="1:98" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="24">
         <v>213</v>
       </c>
-      <c r="B35" s="26">
+      <c r="B35" s="24">
         <v>1</v>
       </c>
       <c r="C35" s="1">
         <v>83</v>
       </c>
-      <c r="D35" s="26">
+      <c r="D35" s="24">
         <v>1</v>
       </c>
-      <c r="E35" s="26">
+      <c r="E35" s="24">
         <v>18</v>
       </c>
       <c r="F35" s="1">
@@ -11051,7 +11009,7 @@
       <c r="G35" s="1">
         <v>0</v>
       </c>
-      <c r="H35" s="26">
+      <c r="H35" s="24">
         <v>0</v>
       </c>
       <c r="I35">
@@ -11312,39 +11270,39 @@
       <c r="CN35" s="4">
         <v>16</v>
       </c>
-      <c r="CO35" s="38">
+      <c r="CO35" s="36">
         <v>9</v>
       </c>
-      <c r="CP35" s="38">
-        <v>0</v>
-      </c>
-      <c r="CQ35" s="26">
+      <c r="CP35" s="36">
+        <v>0</v>
+      </c>
+      <c r="CQ35" s="24">
         <v>1.325</v>
       </c>
-      <c r="CR35" s="26">
+      <c r="CR35" s="24">
         <v>2.15</v>
       </c>
       <c r="CS35" s="4">
         <v>5</v>
       </c>
-      <c r="CT35" s="26">
+      <c r="CT35" s="24">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:98" ht="15.95">
-      <c r="A36" s="26">
+    <row r="36" spans="1:98" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="24">
         <v>215</v>
       </c>
-      <c r="B36" s="26">
+      <c r="B36" s="24">
         <v>1</v>
       </c>
       <c r="C36" s="1">
         <v>68</v>
       </c>
-      <c r="D36" s="26">
+      <c r="D36" s="24">
         <v>1</v>
       </c>
-      <c r="E36" s="26">
+      <c r="E36" s="24">
         <v>16</v>
       </c>
       <c r="F36" s="1">
@@ -11353,7 +11311,7 @@
       <c r="G36" s="1">
         <v>0</v>
       </c>
-      <c r="H36" s="26">
+      <c r="H36" s="24">
         <v>1</v>
       </c>
       <c r="I36">
@@ -11614,36 +11572,36 @@
       <c r="CN36" s="4">
         <v>19</v>
       </c>
-      <c r="CO36" s="38">
+      <c r="CO36" s="36">
         <v>17</v>
       </c>
-      <c r="CP36" s="38">
-        <v>0</v>
-      </c>
-      <c r="CQ36" s="26">
+      <c r="CP36" s="36">
+        <v>0</v>
+      </c>
+      <c r="CQ36" s="24">
         <v>2.4500000000000002</v>
       </c>
-      <c r="CR36" s="26">
+      <c r="CR36" s="24">
         <v>2.1</v>
       </c>
       <c r="CS36" s="4">
         <v>2.5</v>
       </c>
-      <c r="CT36" s="26">
+      <c r="CT36" s="24">
         <v>3.4</v>
       </c>
     </row>
-    <row r="37" spans="1:98" ht="15.95">
-      <c r="A37" s="26">
+    <row r="37" spans="1:98" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="24">
         <v>216</v>
       </c>
-      <c r="B37" s="26">
+      <c r="B37" s="24">
         <v>1</v>
       </c>
       <c r="C37" s="1">
         <v>74</v>
       </c>
-      <c r="D37" s="26">
+      <c r="D37" s="24">
         <v>0</v>
       </c>
       <c r="E37" s="5">
@@ -11655,7 +11613,7 @@
       <c r="G37" s="1">
         <v>0</v>
       </c>
-      <c r="H37" s="26">
+      <c r="H37" s="24">
         <v>0</v>
       </c>
       <c r="I37">
@@ -11916,39 +11874,39 @@
       <c r="CN37" s="4">
         <v>1</v>
       </c>
-      <c r="CO37" s="38">
+      <c r="CO37" s="36">
         <v>21</v>
       </c>
-      <c r="CP37" s="38">
+      <c r="CP37" s="36">
         <v>3</v>
       </c>
-      <c r="CQ37" s="26">
+      <c r="CQ37" s="24">
         <v>2</v>
       </c>
-      <c r="CR37" s="26">
+      <c r="CR37" s="24">
         <v>3.5</v>
       </c>
       <c r="CS37" s="4">
         <v>4.5999999999999996</v>
       </c>
-      <c r="CT37" s="26">
+      <c r="CT37" s="24">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:98" ht="15.95">
-      <c r="A38" s="26">
+    <row r="38" spans="1:98" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="24">
         <v>217</v>
       </c>
-      <c r="B38" s="26">
+      <c r="B38" s="24">
         <v>1</v>
       </c>
       <c r="C38" s="1">
         <v>70</v>
       </c>
-      <c r="D38" s="26">
+      <c r="D38" s="24">
         <v>1</v>
       </c>
-      <c r="E38" s="26">
+      <c r="E38" s="24">
         <v>16</v>
       </c>
       <c r="F38" s="1">
@@ -11957,7 +11915,7 @@
       <c r="G38" s="1">
         <v>0</v>
       </c>
-      <c r="H38" s="26">
+      <c r="H38" s="24">
         <v>0</v>
       </c>
       <c r="I38">
@@ -12218,39 +12176,39 @@
       <c r="CN38" s="4">
         <v>1</v>
       </c>
-      <c r="CO38" s="38">
+      <c r="CO38" s="36">
         <v>20</v>
       </c>
-      <c r="CP38" s="38">
+      <c r="CP38" s="36">
         <v>3</v>
       </c>
-      <c r="CQ38" s="26">
+      <c r="CQ38" s="24">
         <v>4.6749999999999998</v>
       </c>
-      <c r="CR38" s="26">
+      <c r="CR38" s="24">
         <v>3.5</v>
       </c>
       <c r="CS38" s="4">
         <v>1</v>
       </c>
-      <c r="CT38" s="26">
+      <c r="CT38" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:98" ht="15.95">
-      <c r="A39" s="26">
+    <row r="39" spans="1:98" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="24">
         <v>218</v>
       </c>
-      <c r="B39" s="26">
+      <c r="B39" s="24">
         <v>1</v>
       </c>
       <c r="C39" s="1">
         <v>71</v>
       </c>
-      <c r="D39" s="26">
+      <c r="D39" s="24">
         <v>1</v>
       </c>
-      <c r="E39" s="26">
+      <c r="E39" s="24">
         <v>16</v>
       </c>
       <c r="F39" s="1">
@@ -12259,7 +12217,7 @@
       <c r="G39" s="1">
         <v>0</v>
       </c>
-      <c r="H39" s="26">
+      <c r="H39" s="24">
         <v>0</v>
       </c>
       <c r="I39">
@@ -12520,39 +12478,39 @@
       <c r="CN39" s="4">
         <v>1</v>
       </c>
-      <c r="CO39" s="38">
+      <c r="CO39" s="36">
         <v>16</v>
       </c>
-      <c r="CP39" s="38">
-        <v>0</v>
-      </c>
-      <c r="CQ39" s="26">
+      <c r="CP39" s="36">
+        <v>0</v>
+      </c>
+      <c r="CQ39" s="24">
         <v>2.6500000000000004</v>
       </c>
-      <c r="CR39" s="26">
+      <c r="CR39" s="24">
         <v>3.05</v>
       </c>
       <c r="CS39" s="4">
         <v>4.8</v>
       </c>
-      <c r="CT39" s="26">
+      <c r="CT39" s="24">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:98" ht="15.95">
-      <c r="A40" s="26">
+    <row r="40" spans="1:98" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="24">
         <v>219</v>
       </c>
-      <c r="B40" s="26">
+      <c r="B40" s="24">
         <v>1</v>
       </c>
-      <c r="C40" s="26">
+      <c r="C40" s="24">
         <v>63</v>
       </c>
-      <c r="D40" s="26">
+      <c r="D40" s="24">
         <v>1</v>
       </c>
-      <c r="E40" s="26">
+      <c r="E40" s="24">
         <v>18</v>
       </c>
       <c r="F40" s="1">
@@ -12561,7 +12519,7 @@
       <c r="G40" s="1">
         <v>0</v>
       </c>
-      <c r="H40" s="26">
+      <c r="H40" s="24">
         <v>0</v>
       </c>
       <c r="I40">
@@ -12822,48 +12780,48 @@
       <c r="CN40" s="4">
         <v>1</v>
       </c>
-      <c r="CO40" s="38">
+      <c r="CO40" s="36">
         <v>19</v>
       </c>
-      <c r="CP40" s="38">
+      <c r="CP40" s="36">
         <v>4</v>
       </c>
-      <c r="CQ40" s="26">
+      <c r="CQ40" s="24">
         <v>2.4750000000000001</v>
       </c>
-      <c r="CR40" s="26">
+      <c r="CR40" s="24">
         <v>2.8000000000000003</v>
       </c>
       <c r="CS40" s="4">
         <v>4.3</v>
       </c>
-      <c r="CT40" s="26">
+      <c r="CT40" s="24">
         <v>3.8</v>
       </c>
     </row>
-    <row r="41" spans="1:98" ht="15.95">
-      <c r="A41" s="26">
+    <row r="41" spans="1:98" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="24">
         <v>220</v>
       </c>
-      <c r="B41" s="26">
+      <c r="B41" s="24">
         <v>1</v>
       </c>
-      <c r="C41" s="26">
+      <c r="C41" s="24">
         <v>71</v>
       </c>
-      <c r="D41" s="26">
+      <c r="D41" s="24">
         <v>1</v>
       </c>
-      <c r="E41" s="26">
+      <c r="E41" s="24">
         <v>20</v>
       </c>
-      <c r="F41" s="26">
+      <c r="F41" s="24">
         <v>0</v>
       </c>
       <c r="G41" s="1">
         <v>0</v>
       </c>
-      <c r="H41" s="26">
+      <c r="H41" s="24">
         <v>0</v>
       </c>
       <c r="I41">
@@ -13124,48 +13082,48 @@
       <c r="CN41" s="4">
         <v>0</v>
       </c>
-      <c r="CO41" s="38">
+      <c r="CO41" s="36">
         <v>21</v>
       </c>
-      <c r="CP41" s="38">
+      <c r="CP41" s="36">
         <v>3</v>
       </c>
-      <c r="CQ41" s="26">
+      <c r="CQ41" s="24">
         <v>1.925</v>
       </c>
-      <c r="CR41" s="26">
+      <c r="CR41" s="24">
         <v>2.65</v>
       </c>
       <c r="CS41" s="4">
         <v>4.9000000000000004</v>
       </c>
-      <c r="CT41" s="26">
+      <c r="CT41" s="24">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:98" ht="15.95">
-      <c r="A42" s="26">
+    <row r="42" spans="1:98" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="24">
         <v>222</v>
       </c>
-      <c r="B42" s="26">
+      <c r="B42" s="24">
         <v>1</v>
       </c>
-      <c r="C42" s="26">
+      <c r="C42" s="24">
         <v>66</v>
       </c>
-      <c r="D42" s="26">
+      <c r="D42" s="24">
         <v>1</v>
       </c>
-      <c r="E42" s="26">
+      <c r="E42" s="24">
         <v>18</v>
       </c>
-      <c r="F42" s="26">
-        <v>0</v>
-      </c>
-      <c r="G42" s="26">
-        <v>0</v>
-      </c>
-      <c r="H42" s="26">
+      <c r="F42" s="24">
+        <v>0</v>
+      </c>
+      <c r="G42" s="24">
+        <v>0</v>
+      </c>
+      <c r="H42" s="24">
         <v>0</v>
       </c>
       <c r="I42">
@@ -13426,48 +13384,48 @@
       <c r="CN42" s="4">
         <v>5</v>
       </c>
-      <c r="CO42" s="38">
+      <c r="CO42" s="36">
         <v>14</v>
       </c>
-      <c r="CP42" s="38">
+      <c r="CP42" s="36">
         <v>4</v>
       </c>
-      <c r="CQ42" s="26">
+      <c r="CQ42" s="24">
         <v>2.95</v>
       </c>
-      <c r="CR42" s="26">
+      <c r="CR42" s="24">
         <v>3.45</v>
       </c>
       <c r="CS42" s="4">
         <v>4.9000000000000004</v>
       </c>
-      <c r="CT42" s="26">
+      <c r="CT42" s="24">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:98" ht="15.95">
-      <c r="A43" s="26">
+    <row r="43" spans="1:98" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="24">
         <v>223</v>
       </c>
-      <c r="B43" s="26">
+      <c r="B43" s="24">
         <v>1</v>
       </c>
-      <c r="C43" s="26">
+      <c r="C43" s="24">
         <v>64</v>
       </c>
-      <c r="D43" s="26">
-        <v>0</v>
-      </c>
-      <c r="E43" s="26">
+      <c r="D43" s="24">
+        <v>0</v>
+      </c>
+      <c r="E43" s="24">
         <v>16</v>
       </c>
-      <c r="F43" s="26">
-        <v>0</v>
-      </c>
-      <c r="G43" s="26">
-        <v>0</v>
-      </c>
-      <c r="H43" s="26">
+      <c r="F43" s="24">
+        <v>0</v>
+      </c>
+      <c r="G43" s="24">
+        <v>0</v>
+      </c>
+      <c r="H43" s="24">
         <v>0</v>
       </c>
       <c r="I43">
@@ -13728,48 +13686,48 @@
       <c r="CN43" s="4">
         <v>9</v>
       </c>
-      <c r="CO43" s="38">
+      <c r="CO43" s="36">
         <v>14</v>
       </c>
-      <c r="CP43" s="38">
+      <c r="CP43" s="36">
         <v>2</v>
       </c>
-      <c r="CQ43" s="26">
+      <c r="CQ43" s="24">
         <v>2.0750000000000002</v>
       </c>
-      <c r="CR43" s="26">
+      <c r="CR43" s="24">
         <v>2.4</v>
       </c>
       <c r="CS43" s="4">
         <v>4.8</v>
       </c>
-      <c r="CT43" s="26">
+      <c r="CT43" s="24">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="44" spans="1:98" ht="15.95">
-      <c r="A44" s="26">
+    <row r="44" spans="1:98" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="24">
         <v>224</v>
       </c>
-      <c r="B44" s="26">
+      <c r="B44" s="24">
         <v>1</v>
       </c>
-      <c r="C44" s="26">
+      <c r="C44" s="24">
         <v>60</v>
       </c>
-      <c r="D44" s="26">
+      <c r="D44" s="24">
         <v>1</v>
       </c>
-      <c r="E44" s="26">
+      <c r="E44" s="24">
         <v>18</v>
       </c>
-      <c r="F44" s="26">
-        <v>0</v>
-      </c>
-      <c r="G44" s="26">
-        <v>0</v>
-      </c>
-      <c r="H44" s="26">
+      <c r="F44" s="24">
+        <v>0</v>
+      </c>
+      <c r="G44" s="24">
+        <v>0</v>
+      </c>
+      <c r="H44" s="24">
         <v>0</v>
       </c>
       <c r="I44">
@@ -14030,48 +13988,48 @@
       <c r="CN44" s="4">
         <v>4</v>
       </c>
-      <c r="CO44" s="38">
+      <c r="CO44" s="36">
         <v>20</v>
       </c>
-      <c r="CP44" s="38">
+      <c r="CP44" s="36">
         <v>2</v>
       </c>
-      <c r="CQ44" s="26">
+      <c r="CQ44" s="24">
         <v>1.375</v>
       </c>
-      <c r="CR44" s="26">
+      <c r="CR44" s="24">
         <v>2</v>
       </c>
       <c r="CS44" s="4">
         <v>4.8</v>
       </c>
-      <c r="CT44" s="26">
+      <c r="CT44" s="24">
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:98" ht="15.95">
-      <c r="A45" s="26">
+    <row r="45" spans="1:98" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="24">
         <v>225</v>
       </c>
-      <c r="B45" s="26">
+      <c r="B45" s="24">
         <v>1</v>
       </c>
-      <c r="C45" s="26">
+      <c r="C45" s="24">
         <v>68</v>
       </c>
-      <c r="D45" s="26">
+      <c r="D45" s="24">
         <v>1</v>
       </c>
-      <c r="E45" s="26">
+      <c r="E45" s="24">
         <v>18</v>
       </c>
-      <c r="F45" s="26">
-        <v>0</v>
-      </c>
-      <c r="G45" s="26">
-        <v>0</v>
-      </c>
-      <c r="H45" s="26">
+      <c r="F45" s="24">
+        <v>0</v>
+      </c>
+      <c r="G45" s="24">
+        <v>0</v>
+      </c>
+      <c r="H45" s="24">
         <v>0</v>
       </c>
       <c r="I45">
@@ -14323,7 +14281,7 @@
       <c r="CK45" s="3">
         <v>72</v>
       </c>
-      <c r="CL45" s="26">
+      <c r="CL45" s="24">
         <v>48</v>
       </c>
       <c r="CM45" s="3">
@@ -14332,48 +14290,48 @@
       <c r="CN45" s="4">
         <v>7</v>
       </c>
-      <c r="CO45" s="38">
+      <c r="CO45" s="36">
         <v>22</v>
       </c>
-      <c r="CP45" s="38">
+      <c r="CP45" s="36">
         <v>4</v>
       </c>
-      <c r="CQ45" s="26">
+      <c r="CQ45" s="24">
         <v>2.85</v>
       </c>
-      <c r="CR45" s="26">
+      <c r="CR45" s="24">
         <v>3.15</v>
       </c>
-      <c r="CS45" s="26">
+      <c r="CS45" s="24">
         <v>4.5999999999999996</v>
       </c>
-      <c r="CT45" s="26">
+      <c r="CT45" s="24">
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:98" ht="15.95">
-      <c r="A46" s="26">
+    <row r="46" spans="1:98" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="24">
         <v>226</v>
       </c>
-      <c r="B46" s="26">
+      <c r="B46" s="24">
         <v>1</v>
       </c>
-      <c r="C46" s="26">
+      <c r="C46" s="24">
         <v>75</v>
       </c>
-      <c r="D46" s="26">
+      <c r="D46" s="24">
         <v>1</v>
       </c>
-      <c r="E46" s="26">
+      <c r="E46" s="24">
         <v>16</v>
       </c>
-      <c r="F46" s="26">
-        <v>0</v>
-      </c>
-      <c r="G46" s="26">
-        <v>0</v>
-      </c>
-      <c r="H46" s="26">
+      <c r="F46" s="24">
+        <v>0</v>
+      </c>
+      <c r="G46" s="24">
+        <v>0</v>
+      </c>
+      <c r="H46" s="24">
         <v>0</v>
       </c>
       <c r="I46">
@@ -14625,7 +14583,7 @@
       <c r="CK46" s="3">
         <v>75</v>
       </c>
-      <c r="CL46" s="26">
+      <c r="CL46" s="24">
         <v>36</v>
       </c>
       <c r="CM46" s="3">
@@ -14634,48 +14592,48 @@
       <c r="CN46" s="4">
         <v>3</v>
       </c>
-      <c r="CO46" s="38">
+      <c r="CO46" s="36">
         <v>16</v>
       </c>
-      <c r="CP46" s="38">
+      <c r="CP46" s="36">
         <v>2</v>
       </c>
-      <c r="CQ46" s="26">
+      <c r="CQ46" s="24">
         <v>1.5499999999999998</v>
       </c>
-      <c r="CR46" s="26">
+      <c r="CR46" s="24">
         <v>2.75</v>
       </c>
-      <c r="CS46" s="26">
+      <c r="CS46" s="24">
         <v>5</v>
       </c>
-      <c r="CT46" s="26">
+      <c r="CT46" s="24">
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:98" ht="15.95">
-      <c r="A47" s="26">
+    <row r="47" spans="1:98" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="24">
         <v>227</v>
       </c>
-      <c r="B47" s="26">
+      <c r="B47" s="24">
         <v>1</v>
       </c>
-      <c r="C47" s="26">
+      <c r="C47" s="24">
         <v>79</v>
       </c>
-      <c r="D47" s="26">
+      <c r="D47" s="24">
         <v>1</v>
       </c>
-      <c r="E47" s="26">
+      <c r="E47" s="24">
         <v>16</v>
       </c>
-      <c r="F47" s="26">
-        <v>0</v>
-      </c>
-      <c r="G47" s="26">
-        <v>0</v>
-      </c>
-      <c r="H47" s="26">
+      <c r="F47" s="24">
+        <v>0</v>
+      </c>
+      <c r="G47" s="24">
+        <v>0</v>
+      </c>
+      <c r="H47" s="24">
         <v>0</v>
       </c>
       <c r="I47">
@@ -14927,7 +14885,7 @@
       <c r="CK47" s="3">
         <v>75</v>
       </c>
-      <c r="CL47" s="26">
+      <c r="CL47" s="24">
         <v>34</v>
       </c>
       <c r="CM47" s="3">
@@ -14936,48 +14894,48 @@
       <c r="CN47" s="4">
         <v>1</v>
       </c>
-      <c r="CO47" s="38">
+      <c r="CO47" s="36">
         <v>22</v>
       </c>
-      <c r="CP47" s="38">
-        <v>0</v>
-      </c>
-      <c r="CQ47" s="26">
+      <c r="CP47" s="36">
+        <v>0</v>
+      </c>
+      <c r="CQ47" s="24">
         <v>3.45</v>
       </c>
-      <c r="CR47" s="26">
+      <c r="CR47" s="24">
         <v>3.9499999999999997</v>
       </c>
-      <c r="CS47" s="26">
+      <c r="CS47" s="24">
         <v>4.9000000000000004</v>
       </c>
-      <c r="CT47" s="26">
+      <c r="CT47" s="24">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:98" ht="15.95">
-      <c r="A48" s="26">
+    <row r="48" spans="1:98" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="24">
         <v>228</v>
       </c>
-      <c r="B48" s="26">
+      <c r="B48" s="24">
         <v>1</v>
       </c>
-      <c r="C48" s="26">
+      <c r="C48" s="24">
         <v>73</v>
       </c>
-      <c r="D48" s="26">
+      <c r="D48" s="24">
         <v>1</v>
       </c>
-      <c r="E48" s="26">
+      <c r="E48" s="24">
         <v>20</v>
       </c>
-      <c r="F48" s="26">
-        <v>0</v>
-      </c>
-      <c r="G48" s="26">
-        <v>0</v>
-      </c>
-      <c r="H48" s="26">
+      <c r="F48" s="24">
+        <v>0</v>
+      </c>
+      <c r="G48" s="24">
+        <v>0</v>
+      </c>
+      <c r="H48" s="24">
         <v>0</v>
       </c>
       <c r="I48">
@@ -15229,7 +15187,7 @@
       <c r="CK48" s="3">
         <v>77</v>
       </c>
-      <c r="CL48" s="26">
+      <c r="CL48" s="24">
         <v>44</v>
       </c>
       <c r="CM48" s="3">
@@ -15238,22 +15196,22 @@
       <c r="CN48" s="4">
         <v>1</v>
       </c>
-      <c r="CO48" s="38">
+      <c r="CO48" s="36">
         <v>16</v>
       </c>
-      <c r="CP48" s="38">
-        <v>0</v>
-      </c>
-      <c r="CQ48" s="26">
+      <c r="CP48" s="36">
+        <v>0</v>
+      </c>
+      <c r="CQ48" s="24">
         <v>2.5750000000000002</v>
       </c>
-      <c r="CR48" s="26">
+      <c r="CR48" s="24">
         <v>2.75</v>
       </c>
-      <c r="CS48" s="26">
+      <c r="CS48" s="24">
         <v>5</v>
       </c>
-      <c r="CT48" s="26">
+      <c r="CT48" s="24">
         <v>5</v>
       </c>
     </row>
@@ -15280,9 +15238,9 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>102</v>
       </c>
@@ -15290,7 +15248,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -15298,7 +15256,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
@@ -15306,7 +15264,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
@@ -15314,7 +15272,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
@@ -15322,7 +15280,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
@@ -15330,7 +15288,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>1</v>
       </c>
@@ -15339,97 +15297,97 @@
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="25" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="25" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="25" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="25" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="25" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="25" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
         <v>2</v>
       </c>
@@ -15438,67 +15396,67 @@
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="17" t="s">
         <v>3</v>
       </c>
@@ -15507,47 +15465,47 @@
       <c r="D44" s="18"/>
       <c r="E44" s="18"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="19" t="s">
         <v>4</v>
       </c>
@@ -15556,167 +15514,167 @@
       <c r="D53" s="20"/>
       <c r="E53" s="20"/>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="12" t="s">
         <v>5</v>
       </c>
@@ -15725,57 +15683,57 @@
       <c r="D86" s="14"/>
       <c r="E86" s="14"/>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="13" t="s">
         <v>6</v>
       </c>
@@ -15784,52 +15742,52 @@
       <c r="D97" s="15"/>
       <c r="E97" s="15"/>
     </row>
-    <row r="98" spans="1:5" ht="15.75">
+    <row r="98" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="21" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="15.75">
+    <row r="99" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="21" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="15.75">
+    <row r="100" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="21" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="15.75">
+    <row r="101" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="22" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="15.75">
+    <row r="102" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="23" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="15.75">
+    <row r="103" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="23" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="15.75">
+    <row r="104" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="21" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="15.75">
+    <row r="105" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="21" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="15.75">
+    <row r="106" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="21" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="15.75">
+    <row r="107" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="23" t="s">
         <v>101</v>
       </c>
